--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CE\CE3D-1\ComArch\Ass\Parallel_shell_sort_comarch_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7722EE21-5FAB-41DF-898F-EE46830F840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E93E95-7ED5-42E0-BA27-8C3C8F2974B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
   </bookViews>
@@ -138,14 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -463,7 +462,7 @@
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,29 +501,37 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
-        <v>400000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>800000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>400000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>800000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>400000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>800000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>400000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>800000</v>
+      <c r="C3" s="3">
+        <f>400000/100000</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <f>800000/100000</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:J3" si="0">400000/100000</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:J3" si="1">800000/100000</f>
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:J3" si="2">400000/100000</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:J3" si="3">800000/100000</f>
+        <v>8</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:J3" si="4">400000/100000</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3" si="5">800000/100000</f>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -532,28 +539,36 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>57576426671</v>
+        <f>57576426671/1000000000</f>
+        <v>57.576426671</v>
       </c>
       <c r="D4" s="3">
-        <v>140153888489</v>
+        <f>140153888489/1000000000</f>
+        <v>140.153888489</v>
       </c>
       <c r="E4" s="3">
-        <v>61528293692</v>
+        <f>61528293692/1000000000</f>
+        <v>61.528293691999998</v>
       </c>
       <c r="F4" s="3">
-        <v>148772113163</v>
+        <f>148772113163/1000000000</f>
+        <v>148.772113163</v>
       </c>
       <c r="G4" s="3">
-        <v>89618590837</v>
+        <f>89618590837/1000000000</f>
+        <v>89.618590836999999</v>
       </c>
       <c r="H4" s="3">
-        <v>199522972922</v>
+        <f>199522972922/1000000000</f>
+        <v>199.52297292200001</v>
       </c>
       <c r="I4" s="3">
-        <v>98164527582</v>
+        <f>98164527582/1000000000</f>
+        <v>98.164527582000005</v>
       </c>
       <c r="J4" s="3">
-        <v>224572004045</v>
+        <f>224572004045/1000000000</f>
+        <v>224.572004045</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -561,28 +576,36 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>102581070428</v>
+        <f>102581070428/1000000000</f>
+        <v>102.581070428</v>
       </c>
       <c r="D5" s="3">
-        <v>240277675234</v>
+        <f>240277675234/1000000000</f>
+        <v>240.27767523399999</v>
       </c>
       <c r="E5" s="3">
-        <v>103590498919</v>
+        <f>103590498919/1000000000</f>
+        <v>103.590498919</v>
       </c>
       <c r="F5" s="3">
-        <v>241066963850</v>
+        <f>241066963850/1000000000</f>
+        <v>241.06696385000001</v>
       </c>
       <c r="G5" s="3">
-        <v>107344798848</v>
+        <f>107344798848/1000000000</f>
+        <v>107.344798848</v>
       </c>
       <c r="H5" s="3">
-        <v>247076843262</v>
+        <f>247076843262/1000000000</f>
+        <v>247.07684326200001</v>
       </c>
       <c r="I5" s="3">
-        <v>105417172814</v>
+        <f>105417172814/1000000000</f>
+        <v>105.417172814</v>
       </c>
       <c r="J5" s="3">
-        <v>244323702882</v>
+        <f>244323702882/1000000000</f>
+        <v>244.32370288199999</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -879,28 +902,28 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>23.825900000000001</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>57.738999999999997</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>14.053000000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>33.329000000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>14.2601</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>32.292000000000002</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>11.938000000000001</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>27.059000000000001</v>
       </c>
     </row>
@@ -913,5 +936,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3:E3 F3:G3 H3:I3" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CE\CE3D-1\ComArch\Ass\Parallel_shell_sort_comarch_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E93E95-7ED5-42E0-BA27-8C3C8F2974B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F925F26-CE48-41BC-892F-02F8CD80FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>cpu-cycles</t>
   </si>
@@ -141,10 +141,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BC9815-2855-4CB4-8B00-AD41286DC877}">
-  <dimension ref="B2:J16"/>
+  <dimension ref="B2:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,460 +475,898 @@
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="3"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f>400000/100000</f>
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>800000/100000</f>
         <v>8</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:J3" si="0">400000/100000</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3" si="0">400000/100000</f>
         <v>4</v>
       </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:J3" si="1">800000/100000</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3" si="1">800000/100000</f>
         <v>8</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:J3" si="2">400000/100000</f>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3" si="2">400000/100000</f>
         <v>4</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:J3" si="3">800000/100000</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3" si="3">800000/100000</f>
         <v>8</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:J3" si="4">400000/100000</f>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3" si="4">400000/100000</f>
         <v>4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" ref="J3" si="5">800000/100000</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2">
+        <f>400000/100000</f>
+        <v>4</v>
+      </c>
+      <c r="N3" s="2">
+        <f>57576426671/1000000000</f>
+        <v>57.576426671</v>
+      </c>
+      <c r="O3" s="2">
+        <f>102581070428/1000000000</f>
+        <v>102.581070428</v>
+      </c>
+      <c r="P3" s="2">
+        <v>105261837</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3200994</v>
+      </c>
+      <c r="R3" s="2">
+        <v>51203157836</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1222274</v>
+      </c>
+      <c r="T3" s="2">
+        <v>9057248102</v>
+      </c>
+      <c r="U3" s="2">
+        <v>116200</v>
+      </c>
+      <c r="V3" s="2">
+        <v>5488</v>
+      </c>
+      <c r="W3" s="2">
+        <v>81087</v>
+      </c>
+      <c r="X3" s="2">
+        <v>7061629193</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>389073555</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>23.825900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>57576426671/1000000000</f>
         <v>57.576426671</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>140153888489/1000000000</f>
         <v>140.153888489</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>61528293692/1000000000</f>
         <v>61.528293691999998</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>148772113163/1000000000</f>
         <v>148.772113163</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f>89618590837/1000000000</f>
         <v>89.618590836999999</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f>199522972922/1000000000</f>
         <v>199.52297292200001</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f>98164527582/1000000000</f>
         <v>98.164527582000005</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f>224572004045/1000000000</f>
         <v>224.572004045</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="3"/>
+      <c r="M4" s="2">
+        <f>800000/100000</f>
+        <v>8</v>
+      </c>
+      <c r="N4" s="2">
+        <f>140153888489/1000000000</f>
+        <v>140.153888489</v>
+      </c>
+      <c r="O4" s="2">
+        <f>240277675234/1000000000</f>
+        <v>240.27767523399999</v>
+      </c>
+      <c r="P4" s="2">
+        <v>341432618</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>76540655</v>
+      </c>
+      <c r="R4" s="2">
+        <v>120035828090</v>
+      </c>
+      <c r="S4" s="2">
+        <v>230499585</v>
+      </c>
+      <c r="T4" s="2">
+        <v>21065227321</v>
+      </c>
+      <c r="U4" s="2">
+        <v>7613448</v>
+      </c>
+      <c r="V4" s="2">
+        <v>9031</v>
+      </c>
+      <c r="W4" s="2">
+        <v>185809</v>
+      </c>
+      <c r="X4" s="2">
+        <v>15839677214</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>812456302</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>57.738999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f>102581070428/1000000000</f>
         <v>102.581070428</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>240277675234/1000000000</f>
         <v>240.27767523399999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>103590498919/1000000000</f>
         <v>103.590498919</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f>241066963850/1000000000</f>
         <v>241.06696385000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f>107344798848/1000000000</f>
         <v>107.344798848</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f>247076843262/1000000000</f>
         <v>247.07684326200001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f>105417172814/1000000000</f>
         <v>105.417172814</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f>244323702882/1000000000</f>
         <v>244.32370288199999</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2">
+        <f>400000/100000</f>
+        <v>4</v>
+      </c>
+      <c r="N5" s="2">
+        <f>61528293692/1000000000</f>
+        <v>61.528293691999998</v>
+      </c>
+      <c r="O5" s="2">
+        <f>103590498919/1000000000</f>
+        <v>103.590498919</v>
+      </c>
+      <c r="P5" s="2">
+        <v>167466313</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3912984</v>
+      </c>
+      <c r="R5" s="2">
+        <v>51351757370</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1456765</v>
+      </c>
+      <c r="T5" s="2">
+        <v>9057502484</v>
+      </c>
+      <c r="U5" s="2">
+        <v>136292</v>
+      </c>
+      <c r="V5" s="2">
+        <v>4716</v>
+      </c>
+      <c r="W5" s="2">
+        <v>88687</v>
+      </c>
+      <c r="X5" s="2">
+        <v>7371020488</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>390303625</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>14.053000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>105261837</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>341432618</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>167466313</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>730900254</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>160718044</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>422581148</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>174392406</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>628861537</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="3"/>
+      <c r="M6" s="2">
+        <f>800000/100000</f>
+        <v>8</v>
+      </c>
+      <c r="N6" s="2">
+        <f>148772113163/1000000000</f>
+        <v>148.772113163</v>
+      </c>
+      <c r="O6" s="2">
+        <f>241066963850/1000000000</f>
+        <v>241.06696385000001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>730900254</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>68462894</v>
+      </c>
+      <c r="R6" s="2">
+        <v>119926501183</v>
+      </c>
+      <c r="S6" s="2">
+        <v>231142214</v>
+      </c>
+      <c r="T6" s="2">
+        <v>21032754588</v>
+      </c>
+      <c r="U6" s="2">
+        <v>8383061</v>
+      </c>
+      <c r="V6" s="2">
+        <v>7614</v>
+      </c>
+      <c r="W6" s="2">
+        <v>140474</v>
+      </c>
+      <c r="X6" s="2">
+        <v>16138104975</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>816197590</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>33.329000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>3200994</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>76540655</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>3912984</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>68462894</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>4440573</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>66194869</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>3956264</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>59541604</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="2">
+        <f>400000/100000</f>
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
+        <f>89618590837/1000000000</f>
+        <v>89.618590836999999</v>
+      </c>
+      <c r="O7" s="2">
+        <f>107344798848/1000000000</f>
+        <v>107.344798848</v>
+      </c>
+      <c r="P7" s="2">
+        <v>160718044</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4440573</v>
+      </c>
+      <c r="R7" s="2">
+        <v>51786406528</v>
+      </c>
+      <c r="S7" s="2">
+        <v>54176171</v>
+      </c>
+      <c r="T7" s="2">
+        <v>9188689065</v>
+      </c>
+      <c r="U7" s="2">
+        <v>888086</v>
+      </c>
+      <c r="V7" s="2">
+        <v>158264</v>
+      </c>
+      <c r="W7" s="2">
+        <v>237075</v>
+      </c>
+      <c r="X7" s="2">
+        <v>8459147915</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>390068850</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>14.2601</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>51203157836</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>120035828090</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>51351757370</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>119926501183</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>51786406528</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>122937541430</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>51614320939</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>120526690242</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+      <c r="M8" s="2">
+        <f>800000/100000</f>
+        <v>8</v>
+      </c>
+      <c r="N8" s="2">
+        <f>199522972922/1000000000</f>
+        <v>199.52297292200001</v>
+      </c>
+      <c r="O8" s="2">
+        <f>247076843262/1000000000</f>
+        <v>247.07684326200001</v>
+      </c>
+      <c r="P8" s="2">
+        <v>422581148</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>66194869</v>
+      </c>
+      <c r="R8" s="2">
+        <v>122937541430</v>
+      </c>
+      <c r="S8" s="2">
+        <v>290404086</v>
+      </c>
+      <c r="T8" s="2">
+        <v>21264588083</v>
+      </c>
+      <c r="U8" s="2">
+        <v>5783164</v>
+      </c>
+      <c r="V8" s="2">
+        <v>247342</v>
+      </c>
+      <c r="W8" s="2">
+        <v>476437</v>
+      </c>
+      <c r="X8" s="2">
+        <v>17588216779</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>811772546</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>32.292000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1222274</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>230499585</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1456765</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>231142214</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>54176171</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>290404086</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>94683334</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>319521391</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="2">
+        <f>400000/100000</f>
+        <v>4</v>
+      </c>
+      <c r="N9" s="2">
+        <f>98164527582/1000000000</f>
+        <v>98.164527582000005</v>
+      </c>
+      <c r="O9" s="2">
+        <f>105417172814/1000000000</f>
+        <v>105.417172814</v>
+      </c>
+      <c r="P9" s="2">
+        <v>174392406</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3956264</v>
+      </c>
+      <c r="R9" s="2">
+        <v>51614320939</v>
+      </c>
+      <c r="S9" s="2">
+        <v>94683334</v>
+      </c>
+      <c r="T9" s="2">
+        <v>9052268690</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1687686</v>
+      </c>
+      <c r="V9" s="2">
+        <v>312380</v>
+      </c>
+      <c r="W9" s="2">
+        <v>493058</v>
+      </c>
+      <c r="X9" s="2">
+        <v>8048364468</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>385529476</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>11.938000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>9057248102</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>21065227321</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>9057502484</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>21032754588</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>9188689065</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>21264588083</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>9052268690</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>21154330981</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+      <c r="M10" s="2">
+        <f>800000/100000</f>
+        <v>8</v>
+      </c>
+      <c r="N10" s="2">
+        <f>224572004045/1000000000</f>
+        <v>224.572004045</v>
+      </c>
+      <c r="O10" s="2">
+        <f>244323702882/1000000000</f>
+        <v>244.32370288199999</v>
+      </c>
+      <c r="P10" s="2">
+        <v>628861537</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>59541604</v>
+      </c>
+      <c r="R10" s="2">
+        <v>120526690242</v>
+      </c>
+      <c r="S10" s="2">
+        <v>319521391</v>
+      </c>
+      <c r="T10" s="2">
+        <v>21154330981</v>
+      </c>
+      <c r="U10" s="2">
+        <v>5329215</v>
+      </c>
+      <c r="V10" s="2">
+        <v>682843</v>
+      </c>
+      <c r="W10" s="2">
+        <v>973636</v>
+      </c>
+      <c r="X10" s="2">
+        <v>17142361450</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>804444371</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>27.059000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>116200</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>7613448</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>136292</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>8383061</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>888086</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>5783164</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1687686</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>5329215</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>5488</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>9031</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>4716</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>7614</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>158264</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>247342</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>312380</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>682843</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>81087</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>185809</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>88687</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>140474</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>237075</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>476437</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>493058</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>973636</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>7061629193</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>15839677214</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>7371020488</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>16138104975</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>8459147915</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>17588216779</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>8048364468</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>17142361450</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>389073555</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>812456302</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>390303625</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>816197590</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>390068850</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>811772546</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>385529476</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>804444371</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>23.825900000000001</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>57.738999999999997</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>14.053000000000001</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>33.329000000000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>14.2601</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>32.292000000000002</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>11.938000000000001</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>27.059000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CE\CE3D-1\ComArch\Ass\Parallel_shell_sort_comarch_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F925F26-CE48-41BC-892F-02F8CD80FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F984BA8-63C4-4DBB-AF7C-1FCD56A90D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>cpu-cycles</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>4 core</t>
+  </si>
+  <si>
+    <t>core</t>
   </si>
 </sst>
 </file>
@@ -138,10 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BC9815-2855-4CB4-8B00-AD41286DC877}">
   <dimension ref="B2:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,23 +501,25 @@
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="L2" s="1"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
@@ -591,8 +599,8 @@
         <f t="shared" ref="J3" si="5">800000/100000</f>
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
+      <c r="L3" s="3">
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <f>400000/100000</f>
@@ -676,7 +684,9 @@
         <f>224572004045/1000000000</f>
         <v>224.572004045</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
       <c r="M4" s="2">
         <f>800000/100000</f>
         <v>8</v>
@@ -759,8 +769,8 @@
         <f>244323702882/1000000000</f>
         <v>244.32370288199999</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>15</v>
+      <c r="L5" s="3">
+        <v>2</v>
       </c>
       <c r="M5" s="2">
         <f>400000/100000</f>
@@ -836,7 +846,9 @@
       <c r="J6" s="2">
         <v>628861537</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
       <c r="M6" s="2">
         <f>800000/100000</f>
         <v>8</v>
@@ -911,8 +923,8 @@
       <c r="J7" s="2">
         <v>59541604</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>16</v>
+      <c r="L7" s="3">
+        <v>3</v>
       </c>
       <c r="M7" s="2">
         <f>400000/100000</f>
@@ -988,7 +1000,9 @@
       <c r="J8" s="2">
         <v>120526690242</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
       <c r="M8" s="2">
         <f>800000/100000</f>
         <v>8</v>
@@ -1063,8 +1077,8 @@
       <c r="J9" s="2">
         <v>319521391</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>17</v>
+      <c r="L9" s="3">
+        <v>4</v>
       </c>
       <c r="M9" s="2">
         <f>400000/100000</f>
@@ -1140,7 +1154,9 @@
       <c r="J10" s="2">
         <v>21154330981</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>4</v>
+      </c>
       <c r="M10" s="2">
         <f>800000/100000</f>
         <v>8</v>
@@ -1362,11 +1378,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
+  <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CE\CE3D-1\ComArch\Ass\Parallel_shell_sort_comarch_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853F14C6-980B-4D1B-89AD-D8215784EE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD61C76-B526-4710-A73B-9EA4CB6B429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>cpu-cycles</t>
   </si>
@@ -100,15 +100,37 @@
   </si>
   <si>
     <t>Raw</t>
+  </si>
+  <si>
+    <t>1 Thread</t>
+  </si>
+  <si>
+    <t>2 Thread</t>
+  </si>
+  <si>
+    <t>3 Thread</t>
+  </si>
+  <si>
+    <t>4 Thread</t>
+  </si>
+  <si>
+    <t>หัวข้อ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -150,17 +172,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,1480 +502,1489 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BC9815-2855-4CB4-8B00-AD41286DC877}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1000000000</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <f>57576426671</f>
         <v>57576426671</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <f>140153888489</f>
         <v>140153888489</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <f>61528293692</f>
         <v>61528293692</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <f>148772113163</f>
         <v>148772113163</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <f>89618590837</f>
         <v>89618590837</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <f>199522972922</f>
         <v>199522972922</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <f>98164527582</f>
         <v>98164527582</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <f>224572004045</f>
         <v>224572004045</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="6">
         <v>1</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="5">
         <f>400000/100000</f>
         <v>4</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="5">
         <f>57576426671/1000000000</f>
         <v>57.576426671</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="5">
         <f>102581070428/1000000000</f>
         <v>102.581070428</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="5">
         <f>105261837</f>
         <v>105261837</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="5">
         <v>3200994</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="5">
         <v>51203157836</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="5">
         <v>1222274</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="5">
         <v>9057248102</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="5">
         <v>116200</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="5">
         <v>5488</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="5">
         <v>81087</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="5">
         <v>7061629193</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="5">
         <v>389073555</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="5">
         <v>23.825900000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1000000000</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <f>102581070428</f>
         <v>102581070428</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <f>240277675234</f>
         <v>240277675234</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <f>103590498919</f>
         <v>103590498919</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <f>241066963850</f>
         <v>241066963850</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <f>107344798848</f>
         <v>107344798848</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <f>247076843262</f>
         <v>247076843262</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <f>105417172814</f>
         <v>105417172814</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <f>244323702882</f>
         <v>244323702882</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="6">
         <v>1</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="5">
         <f>800000/100000</f>
         <v>8</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="5">
         <f>140153888489/1000000000</f>
         <v>140.153888489</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="5">
         <f>240277675234/1000000000</f>
         <v>240.27767523399999</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="5">
         <f>341432618</f>
         <v>341432618</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="5">
         <v>76540655</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="5">
         <v>120035828090</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="5">
         <v>230499585</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="5">
         <v>21065227321</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="5">
         <v>7613448</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="5">
         <v>9031</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="5">
         <v>185809</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="5">
         <v>15839677214</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="5">
         <v>812456302</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="5">
         <v>57.738999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1000000</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>105261837</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>341432618</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>167466313</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>730900254</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>160718044</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>422581148</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>174392406</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="5">
         <v>628861537</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="6">
         <v>2</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="5">
         <f>400000/100000</f>
         <v>4</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="5">
         <f>61528293692/1000000000</f>
         <v>61.528293691999998</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="5">
         <f>103590498919/1000000000</f>
         <v>103.590498919</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="5">
         <v>167466313</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="5">
         <v>3912984</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="5">
         <v>51351757370</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="5">
         <v>1456765</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="5">
         <v>9057502484</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="5">
         <v>136292</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="5">
         <v>4716</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="5">
         <v>88687</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="5">
         <v>7371020488</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="5">
         <v>390303625</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="5">
         <v>14.053000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>1000000</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>3200994</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>76540655</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>3912984</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>68462894</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>4440573</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>66194869</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>3956264</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>59541604</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="6">
         <v>2</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="5">
         <f>800000/100000</f>
         <v>8</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="5">
         <f>148772113163/1000000000</f>
         <v>148.772113163</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="5">
         <f>241066963850/1000000000</f>
         <v>241.06696385000001</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="5">
         <v>730900254</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="5">
         <v>68462894</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="5">
         <v>119926501183</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="5">
         <v>231142214</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="5">
         <v>21032754588</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="5">
         <v>8383061</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="5">
         <v>7614</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="5">
         <v>140474</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="5">
         <v>16138104975</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="5">
         <v>816197590</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="5">
         <v>33.329000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>1000000000</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>51203157836</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>120035828090</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>51351757370</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>119926501183</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>51786406528</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>122937541430</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>51614320939</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>120526690242</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="6">
         <v>3</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="5">
         <f>400000/100000</f>
         <v>4</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="5">
         <f>89618590837/1000000000</f>
         <v>89.618590836999999</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="5">
         <f>107344798848/1000000000</f>
         <v>107.344798848</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="5">
         <v>160718044</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="5">
         <v>4440573</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="5">
         <v>51786406528</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="5">
         <v>54176171</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="5">
         <v>9188689065</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="5">
         <v>888086</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="5">
         <v>158264</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="5">
         <v>237075</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="5">
         <v>8459147915</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8" s="5">
         <v>390068850</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="5">
         <v>14.2601</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>100000</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>1222274</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>230499585</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>1456765</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>231142214</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>54176171</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>290404086</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>94683334</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="5">
         <v>319521391</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="6">
         <v>3</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="5">
         <f>800000/100000</f>
         <v>8</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="5">
         <f>199522972922/1000000000</f>
         <v>199.52297292200001</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="5">
         <f>247076843262/1000000000</f>
         <v>247.07684326200001</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="5">
         <v>422581148</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="5">
         <v>66194869</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="5">
         <v>122937541430</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="5">
         <v>290404086</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="5">
         <v>21264588083</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="5">
         <v>5783164</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB9" s="5">
         <v>247342</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC9" s="5">
         <v>476437</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="5">
         <v>17588216779</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE9" s="5">
         <v>811772546</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9" s="5">
         <v>32.292000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>1000000000</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>9057248102</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>21065227321</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>9057502484</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>21032754588</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>9188689065</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>21264588083</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>9052268690</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="5">
         <v>21154330981</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="6">
         <v>4</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="5">
         <f>400000/100000</f>
         <v>4</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="5">
         <f>98164527582/1000000000</f>
         <v>98.164527582000005</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="5">
         <f>105417172814/1000000000</f>
         <v>105.417172814</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="5">
         <v>174392406</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="5">
         <v>3956264</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="5">
         <v>51614320939</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="5">
         <v>94683334</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="5">
         <v>9052268690</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="5">
         <v>1687686</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="5">
         <v>312380</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="5">
         <v>493058</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="5">
         <v>8048364468</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="5">
         <v>385529476</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="5">
         <v>11.938000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10000</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>116200</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>7613448</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>136292</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>8383061</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>888086</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>5783164</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>1687686</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="5">
         <v>5329215</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="6">
         <v>4</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="5">
         <f>800000/100000</f>
         <v>8</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="5">
         <f>224572004045/1000000000</f>
         <v>224.572004045</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="5">
         <f>244323702882/1000000000</f>
         <v>244.32370288199999</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="5">
         <v>628861537</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="5">
         <v>59541604</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="5">
         <v>120526690242</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="5">
         <v>319521391</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="5">
         <v>21154330981</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="5">
         <v>5329215</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="5">
         <v>682843</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11" s="5">
         <v>973636</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11" s="5">
         <v>17142361450</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE11" s="5">
         <v>804444371</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11" s="5">
         <v>27.059000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>1000</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>5488</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>9031</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>4716</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>7614</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>158264</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>247342</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>312380</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <v>682843</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>10000</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>81087</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>185809</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>88687</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>140474</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>237075</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>476437</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>493058</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="5">
         <v>973636</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>100000000</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>7061629193</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>15839677214</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>7371020488</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>16138104975</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>8459147915</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <v>17588216779</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <v>8048364468</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="5">
         <v>17142361450</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10000000</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>389073555</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>812456302</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>390303625</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="5">
         <v>816197590</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>390068850</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <v>811772546</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>385529476</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="5">
         <v>804444371</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>23.825900000000001</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>57.738999999999997</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>14.053000000000001</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>33.329000000000001</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>14.2601</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>32.292000000000002</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>11.938000000000001</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>27.059000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <f t="shared" ref="C25:C29" si="0">C4/A4</f>
         <v>57.576426671</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <f t="shared" ref="D25:D26" si="1">D4/A4</f>
         <v>140.153888489</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="5">
         <f t="shared" ref="E25:E26" si="2">E4/A4</f>
         <v>61.528293691999998</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <f t="shared" ref="F25:F26" si="3">F4/A4</f>
         <v>148.772113163</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <f t="shared" ref="G25:G26" si="4">G4/A4</f>
         <v>89.618590836999999</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="5">
         <f t="shared" ref="H25:H26" si="5">H4/A4</f>
         <v>199.52297292200001</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="5">
         <f t="shared" ref="I25:I26" si="6">I4/A4</f>
         <v>98.164527582000005</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="5">
         <f t="shared" ref="J25:J26" si="7">J4/A4</f>
         <v>224.572004045</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>102.581070428</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <f t="shared" si="1"/>
         <v>240.27767523399999</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="5">
         <f t="shared" si="2"/>
         <v>103.590498919</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="5">
         <f t="shared" si="3"/>
         <v>241.06696385000001</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <f t="shared" si="4"/>
         <v>107.344798848</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="5">
         <f t="shared" si="5"/>
         <v>247.07684326200001</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="5">
         <f t="shared" si="6"/>
         <v>105.417172814</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="5">
         <f t="shared" si="7"/>
         <v>244.32370288199999</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>105.261837</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <f>D6/A6</f>
         <v>341.43261799999999</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="5">
         <f>E6/A6</f>
         <v>167.46631300000001</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="5">
         <f>F6/A6</f>
         <v>730.90025400000002</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <f>G6/A6</f>
         <v>160.71804399999999</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="5">
         <f>H6/A6</f>
         <v>422.58114799999998</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="5">
         <f>I6/A6</f>
         <v>174.39240599999999</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="5">
         <f>J6/A6</f>
         <v>628.861537</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>3.2009940000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <f t="shared" ref="D28:D37" si="8">D7/A7</f>
         <v>76.540655000000001</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="5">
         <f t="shared" ref="E28:E37" si="9">E7/A7</f>
         <v>3.9129839999999998</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="5">
         <f t="shared" ref="F28:F37" si="10">F7/A7</f>
         <v>68.462894000000006</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <f t="shared" ref="G28:G37" si="11">G7/A7</f>
         <v>4.4405729999999997</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="5">
         <f t="shared" ref="H28:H37" si="12">H7/A7</f>
         <v>66.194868999999997</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="5">
         <f t="shared" ref="I28:I37" si="13">I7/A7</f>
         <v>3.956264</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="5">
         <f t="shared" ref="J28:J37" si="14">J7/A7</f>
         <v>59.541604</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>51.203157836000003</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <f t="shared" si="8"/>
         <v>120.03582809</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="5">
         <f t="shared" si="9"/>
         <v>51.351757370000001</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <f t="shared" si="10"/>
         <v>119.926501183</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
         <f t="shared" si="11"/>
         <v>51.786406528000001</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="5">
         <f t="shared" si="12"/>
         <v>122.93754143</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="5">
         <f t="shared" si="13"/>
         <v>51.614320939000002</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="5">
         <f t="shared" si="14"/>
         <v>120.526690242</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2">
-        <f t="shared" ref="C28:C37" si="15">C9/A9</f>
+      <c r="C30" s="5">
+        <f t="shared" ref="C30:C37" si="15">C9/A9</f>
         <v>12.22274</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <f t="shared" si="8"/>
         <v>2304.9958499999998</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="5">
         <f t="shared" si="9"/>
         <v>14.56765</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="5">
         <f t="shared" si="10"/>
         <v>2311.4221400000001</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <f t="shared" si="11"/>
         <v>541.76170999999999</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="5">
         <f t="shared" si="12"/>
         <v>2904.0408600000001</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="5">
         <f t="shared" si="13"/>
         <v>946.83334000000002</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="5">
         <f t="shared" si="14"/>
         <v>3195.2139099999999</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="5">
         <f t="shared" si="15"/>
         <v>9.0572481020000009</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <f t="shared" si="8"/>
         <v>21.065227320999998</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="5">
         <f t="shared" si="9"/>
         <v>9.0575024840000005</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="5">
         <f t="shared" si="10"/>
         <v>21.032754588</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="5">
         <f t="shared" si="11"/>
         <v>9.1886890650000002</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="5">
         <f t="shared" si="12"/>
         <v>21.264588083</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="5">
         <f t="shared" si="13"/>
         <v>9.05226869</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="5">
         <f t="shared" si="14"/>
         <v>21.154330981000001</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <f t="shared" si="15"/>
         <v>11.62</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <f t="shared" si="8"/>
         <v>761.34479999999996</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="5">
         <f t="shared" si="9"/>
         <v>13.629200000000001</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="5">
         <f t="shared" si="10"/>
         <v>838.30610000000001</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="5">
         <f t="shared" si="11"/>
         <v>88.808599999999998</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="5">
         <f t="shared" si="12"/>
         <v>578.31640000000004</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="5">
         <f t="shared" si="13"/>
         <v>168.76859999999999</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="5">
         <f t="shared" si="14"/>
         <v>532.92150000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="5">
         <f t="shared" si="15"/>
         <v>5.4880000000000004</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <f t="shared" si="8"/>
         <v>9.0310000000000006</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="5">
         <f t="shared" si="9"/>
         <v>4.7160000000000002</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="5">
         <f t="shared" si="10"/>
         <v>7.6139999999999999</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="5">
         <f t="shared" si="11"/>
         <v>158.26400000000001</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="5">
         <f t="shared" si="12"/>
         <v>247.34200000000001</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="5">
         <f t="shared" si="13"/>
         <v>312.38</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="5">
         <f t="shared" si="14"/>
         <v>682.84299999999996</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="5">
         <f t="shared" si="15"/>
         <v>8.1087000000000007</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <f t="shared" si="8"/>
         <v>18.5809</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="5">
         <f t="shared" si="9"/>
         <v>8.8687000000000005</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="5">
         <f t="shared" si="10"/>
         <v>14.0474</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="5">
         <f t="shared" si="11"/>
         <v>23.7075</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="5">
         <f t="shared" si="12"/>
         <v>47.643700000000003</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="5">
         <f t="shared" si="13"/>
         <v>49.305799999999998</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="5">
         <f t="shared" si="14"/>
         <v>97.363600000000005</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="5">
         <f t="shared" si="15"/>
         <v>70.616291930000003</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <f t="shared" si="8"/>
         <v>158.39677214</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="5">
         <f t="shared" si="9"/>
         <v>73.710204880000006</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="5">
         <f t="shared" si="10"/>
         <v>161.38104974999999</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="5">
         <f t="shared" si="11"/>
         <v>84.591479149999998</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="5">
         <f t="shared" si="12"/>
         <v>175.88216779000001</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="5">
         <f t="shared" si="13"/>
         <v>80.483644679999998</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="5">
         <f t="shared" si="14"/>
         <v>171.42361450000001</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="5">
         <f t="shared" si="15"/>
         <v>38.907355500000001</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="5">
         <f t="shared" si="8"/>
         <v>81.245630199999994</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="5">
         <f t="shared" si="9"/>
         <v>39.030362500000003</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="5">
         <f t="shared" si="10"/>
         <v>81.619759000000002</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="5">
         <f t="shared" si="11"/>
         <v>39.006884999999997</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="5">
         <f t="shared" si="12"/>
         <v>81.177254599999998</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="5">
         <f t="shared" si="13"/>
         <v>38.552947600000003</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="5">
         <f t="shared" si="14"/>
         <v>80.444437100000002</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="5">
         <f t="shared" si="15"/>
         <v>23.825900000000001</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <f t="shared" si="8"/>
         <v>57.738999999999997</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="5">
         <f t="shared" si="9"/>
         <v>14.053000000000001</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="5">
         <f t="shared" si="10"/>
         <v>33.329000000000001</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="5">
         <f t="shared" si="11"/>
         <v>14.2601</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="5">
         <f t="shared" si="12"/>
         <v>32.292000000000002</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="5">
         <f t="shared" si="13"/>
         <v>11.938000000000001</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="5">
         <f t="shared" si="14"/>
         <v>27.059000000000001</v>
       </c>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CE\CE3D-1\ComArch\Ass\Parallel_shell_sort_comarch_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD61C76-B526-4710-A73B-9EA4CB6B429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F31F6-E384-4890-8291-573849276FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,13 +108,13 @@
     <t>2 Thread</t>
   </si>
   <si>
-    <t>3 Thread</t>
-  </si>
-  <si>
     <t>4 Thread</t>
   </si>
   <si>
     <t>หัวข้อ</t>
+  </si>
+  <si>
+    <t>8 Thread</t>
   </si>
 </sst>
 </file>
@@ -176,13 +176,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,22 +502,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BC9815-2855-4CB4-8B00-AD41286DC877}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
@@ -549,49 +548,49 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R3" s="2" t="s">
@@ -647,85 +646,77 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
-        <f>57576426671</f>
-        <v>57576426671</v>
-      </c>
-      <c r="D4" s="5">
-        <f>140153888489</f>
-        <v>140153888489</v>
-      </c>
-      <c r="E4" s="5">
-        <f>61528293692</f>
-        <v>61528293692</v>
-      </c>
-      <c r="F4" s="5">
-        <f>148772113163</f>
-        <v>148772113163</v>
-      </c>
-      <c r="G4" s="5">
-        <f>89618590837</f>
-        <v>89618590837</v>
-      </c>
-      <c r="H4" s="5">
-        <f>199522972922</f>
-        <v>199522972922</v>
-      </c>
-      <c r="I4" s="5">
-        <f>98164527582</f>
-        <v>98164527582</v>
-      </c>
-      <c r="J4" s="5">
-        <f>224572004045</f>
-        <v>224572004045</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="C4" s="4">
+        <v>59391411426</v>
+      </c>
+      <c r="D4" s="4">
+        <v>135233949506</v>
+      </c>
+      <c r="E4" s="4">
+        <v>64357536593</v>
+      </c>
+      <c r="F4" s="4">
+        <v>142864446673</v>
+      </c>
+      <c r="G4" s="4">
+        <v>78371448964</v>
+      </c>
+      <c r="H4" s="4">
+        <v>159752728224</v>
+      </c>
+      <c r="I4" s="4">
+        <v>114663656015</v>
+      </c>
+      <c r="J4" s="4">
+        <v>243814613451</v>
+      </c>
+      <c r="R4" s="5">
         <v>1</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <f>400000/100000</f>
         <v>4</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <f>57576426671/1000000000</f>
         <v>57.576426671</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <f>102581070428/1000000000</f>
         <v>102.581070428</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <f>105261837</f>
         <v>105261837</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>3200994</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>51203157836</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="4">
         <v>1222274</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="4">
         <v>9057248102</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <v>116200</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="4">
         <v>5488</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="4">
         <v>81087</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="4">
         <v>7061629193</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="4">
         <v>389073555</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="4">
         <v>23.825900000000001</v>
       </c>
     </row>
@@ -736,85 +727,77 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
-        <f>102581070428</f>
-        <v>102581070428</v>
-      </c>
-      <c r="D5" s="5">
-        <f>240277675234</f>
-        <v>240277675234</v>
-      </c>
-      <c r="E5" s="5">
-        <f>103590498919</f>
-        <v>103590498919</v>
-      </c>
-      <c r="F5" s="5">
-        <f>241066963850</f>
-        <v>241066963850</v>
-      </c>
-      <c r="G5" s="5">
-        <f>107344798848</f>
-        <v>107344798848</v>
-      </c>
-      <c r="H5" s="5">
-        <f>247076843262</f>
-        <v>247076843262</v>
-      </c>
-      <c r="I5" s="5">
-        <f>105417172814</f>
-        <v>105417172814</v>
-      </c>
-      <c r="J5" s="5">
-        <f>244323702882</f>
-        <v>244323702882</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="C5" s="4">
+        <v>103656041291</v>
+      </c>
+      <c r="D5" s="4">
+        <v>242775917645</v>
+      </c>
+      <c r="E5" s="4">
+        <v>105887780106</v>
+      </c>
+      <c r="F5" s="4">
+        <v>244612982004</v>
+      </c>
+      <c r="G5" s="4">
+        <v>108856871804</v>
+      </c>
+      <c r="H5" s="4">
+        <v>248054946142</v>
+      </c>
+      <c r="I5" s="4">
+        <v>112527323146</v>
+      </c>
+      <c r="J5" s="4">
+        <v>256132803794</v>
+      </c>
+      <c r="R5" s="5">
         <v>1</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <f>800000/100000</f>
         <v>8</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <f>140153888489/1000000000</f>
         <v>140.153888489</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <f>240277675234/1000000000</f>
         <v>240.27767523399999</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <f>341432618</f>
         <v>341432618</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>76540655</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="4">
         <v>120035828090</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="4">
         <v>230499585</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="4">
         <v>21065227321</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <v>7613448</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="4">
         <v>9031</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="4">
         <v>185809</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="4">
         <v>15839677214</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="4">
         <v>812456302</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="4">
         <v>57.738999999999997</v>
       </c>
     </row>
@@ -825,76 +808,76 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
-        <v>105261837</v>
-      </c>
-      <c r="D6" s="5">
-        <v>341432618</v>
-      </c>
-      <c r="E6" s="5">
-        <v>167466313</v>
-      </c>
-      <c r="F6" s="5">
-        <v>730900254</v>
-      </c>
-      <c r="G6" s="5">
-        <v>160718044</v>
-      </c>
-      <c r="H6" s="5">
-        <v>422581148</v>
-      </c>
-      <c r="I6" s="5">
-        <v>174392406</v>
-      </c>
-      <c r="J6" s="5">
-        <v>628861537</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="C6" s="4">
+        <v>88947240</v>
+      </c>
+      <c r="D6" s="4">
+        <v>279679579</v>
+      </c>
+      <c r="E6" s="4">
+        <v>126562221</v>
+      </c>
+      <c r="F6" s="4">
+        <v>339227455</v>
+      </c>
+      <c r="G6" s="4">
+        <v>209251664</v>
+      </c>
+      <c r="H6" s="4">
+        <v>465633189</v>
+      </c>
+      <c r="I6" s="4">
+        <v>219563357</v>
+      </c>
+      <c r="J6" s="4">
+        <v>506134744</v>
+      </c>
+      <c r="R6" s="5">
         <v>2</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <f>400000/100000</f>
         <v>4</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <f>61528293692/1000000000</f>
         <v>61.528293691999998</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4">
         <f>103590498919/1000000000</f>
         <v>103.590498919</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <v>167466313</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <v>3912984</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="4">
         <v>51351757370</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="4">
         <v>1456765</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="4">
         <v>9057502484</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="4">
         <v>136292</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="4">
         <v>4716</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="4">
         <v>88687</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="4">
         <v>7371020488</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="4">
         <v>390303625</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF6" s="4">
         <v>14.053000000000001</v>
       </c>
     </row>
@@ -905,76 +888,76 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
-        <v>3200994</v>
-      </c>
-      <c r="D7" s="5">
-        <v>76540655</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3912984</v>
-      </c>
-      <c r="F7" s="5">
-        <v>68462894</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4440573</v>
-      </c>
-      <c r="H7" s="5">
-        <v>66194869</v>
-      </c>
-      <c r="I7" s="5">
-        <v>3956264</v>
-      </c>
-      <c r="J7" s="5">
-        <v>59541604</v>
-      </c>
-      <c r="R7" s="6">
+      <c r="C7" s="4">
+        <v>1434595</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1805780</v>
+      </c>
+      <c r="E7" s="4">
+        <v>675981</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2902367</v>
+      </c>
+      <c r="G7" s="4">
+        <v>395515</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1096350</v>
+      </c>
+      <c r="I7" s="4">
+        <v>503929</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2268369</v>
+      </c>
+      <c r="R7" s="5">
         <v>2</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <f>800000/100000</f>
         <v>8</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <f>148772113163/1000000000</f>
         <v>148.772113163</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <f>241066963850/1000000000</f>
         <v>241.06696385000001</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>730900254</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>68462894</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>119926501183</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>231142214</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="4">
         <v>21032754588</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
         <v>8383061</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="4">
         <v>7614</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="4">
         <v>140474</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="4">
         <v>16138104975</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE7" s="4">
         <v>816197590</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF7" s="4">
         <v>33.329000000000001</v>
       </c>
     </row>
@@ -985,76 +968,76 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
-        <v>51203157836</v>
-      </c>
-      <c r="D8" s="5">
-        <v>120035828090</v>
-      </c>
-      <c r="E8" s="5">
-        <v>51351757370</v>
-      </c>
-      <c r="F8" s="5">
-        <v>119926501183</v>
-      </c>
-      <c r="G8" s="5">
-        <v>51786406528</v>
-      </c>
-      <c r="H8" s="5">
-        <v>122937541430</v>
-      </c>
-      <c r="I8" s="5">
-        <v>51614320939</v>
-      </c>
-      <c r="J8" s="5">
-        <v>120526690242</v>
-      </c>
-      <c r="R8" s="6">
+      <c r="C8" s="4">
+        <v>51102978160</v>
+      </c>
+      <c r="D8" s="4">
+        <v>120145670401</v>
+      </c>
+      <c r="E8" s="4">
+        <v>51644393409</v>
+      </c>
+      <c r="F8" s="4">
+        <v>119560811478</v>
+      </c>
+      <c r="G8" s="4">
+        <v>51655900988</v>
+      </c>
+      <c r="H8" s="4">
+        <v>121695226488</v>
+      </c>
+      <c r="I8" s="4">
+        <v>52074639712</v>
+      </c>
+      <c r="J8" s="4">
+        <v>122328619686</v>
+      </c>
+      <c r="R8" s="5">
         <v>3</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <f>400000/100000</f>
         <v>4</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <f>89618590837/1000000000</f>
         <v>89.618590836999999</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4">
         <f>107344798848/1000000000</f>
         <v>107.344798848</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="4">
         <v>160718044</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="4">
         <v>4440573</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="4">
         <v>51786406528</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="4">
         <v>54176171</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="4">
         <v>9188689065</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="4">
         <v>888086</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="4">
         <v>158264</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AC8" s="4">
         <v>237075</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AD8" s="4">
         <v>8459147915</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AE8" s="4">
         <v>390068850</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AF8" s="4">
         <v>14.2601</v>
       </c>
     </row>
@@ -1065,76 +1048,76 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
-        <v>1222274</v>
-      </c>
-      <c r="D9" s="5">
-        <v>230499585</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1456765</v>
-      </c>
-      <c r="F9" s="5">
-        <v>231142214</v>
-      </c>
-      <c r="G9" s="5">
-        <v>54176171</v>
-      </c>
-      <c r="H9" s="5">
-        <v>290404086</v>
-      </c>
-      <c r="I9" s="5">
-        <v>94683334</v>
-      </c>
-      <c r="J9" s="5">
-        <v>319521391</v>
-      </c>
-      <c r="R9" s="6">
+      <c r="C9" s="4">
+        <v>112369</v>
+      </c>
+      <c r="D9" s="4">
+        <v>647939</v>
+      </c>
+      <c r="E9" s="4">
+        <v>181677</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1177584</v>
+      </c>
+      <c r="G9" s="4">
+        <v>551665</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6253023</v>
+      </c>
+      <c r="I9" s="4">
+        <v>790585</v>
+      </c>
+      <c r="J9" s="4">
+        <v>175270231</v>
+      </c>
+      <c r="R9" s="5">
         <v>3</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <f>800000/100000</f>
         <v>8</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="4">
         <f>199522972922/1000000000</f>
         <v>199.52297292200001</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="4">
         <f>247076843262/1000000000</f>
         <v>247.07684326200001</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <v>422581148</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="4">
         <v>66194869</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="4">
         <v>122937541430</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="4">
         <v>290404086</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" s="4">
         <v>21264588083</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="4">
         <v>5783164</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="4">
         <v>247342</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC9" s="4">
         <v>476437</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AD9" s="4">
         <v>17588216779</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE9" s="4">
         <v>811772546</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AF9" s="4">
         <v>32.292000000000002</v>
       </c>
     </row>
@@ -1145,76 +1128,76 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>9057248102</v>
-      </c>
-      <c r="D10" s="5">
-        <v>21065227321</v>
-      </c>
-      <c r="E10" s="5">
-        <v>9057502484</v>
-      </c>
-      <c r="F10" s="5">
-        <v>21032754588</v>
-      </c>
-      <c r="G10" s="5">
-        <v>9188689065</v>
-      </c>
-      <c r="H10" s="5">
-        <v>21264588083</v>
-      </c>
-      <c r="I10" s="5">
-        <v>9052268690</v>
-      </c>
-      <c r="J10" s="5">
-        <v>21154330981</v>
-      </c>
-      <c r="R10" s="6">
+      <c r="C10" s="4">
+        <v>9015415816</v>
+      </c>
+      <c r="D10" s="4">
+        <v>21340000904</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9077426276</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20880980393</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9198371306</v>
+      </c>
+      <c r="H10" s="4">
+        <v>21021737761</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9000335638</v>
+      </c>
+      <c r="J10" s="4">
+        <v>21148751373</v>
+      </c>
+      <c r="R10" s="5">
         <v>4</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <f>400000/100000</f>
         <v>4</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <f>98164527582/1000000000</f>
         <v>98.164527582000005</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4">
         <f>105417172814/1000000000</f>
         <v>105.417172814</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="4">
         <v>174392406</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="4">
         <v>3956264</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="4">
         <v>51614320939</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="4">
         <v>94683334</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="4">
         <v>9052268690</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="4">
         <v>1687686</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" s="4">
         <v>312380</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC10" s="4">
         <v>493058</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD10" s="4">
         <v>8048364468</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE10" s="4">
         <v>385529476</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AF10" s="4">
         <v>11.938000000000001</v>
       </c>
     </row>
@@ -1225,76 +1208,76 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
-        <v>116200</v>
-      </c>
-      <c r="D11" s="5">
-        <v>7613448</v>
-      </c>
-      <c r="E11" s="5">
-        <v>136292</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8383061</v>
-      </c>
-      <c r="G11" s="5">
-        <v>888086</v>
-      </c>
-      <c r="H11" s="5">
-        <v>5783164</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1687686</v>
-      </c>
-      <c r="J11" s="5">
-        <v>5329215</v>
-      </c>
-      <c r="R11" s="6">
+      <c r="C11" s="4">
+        <v>20281</v>
+      </c>
+      <c r="D11" s="4">
+        <v>147750</v>
+      </c>
+      <c r="E11" s="4">
+        <v>28098</v>
+      </c>
+      <c r="F11" s="4">
+        <v>136333</v>
+      </c>
+      <c r="G11" s="4">
+        <v>48732</v>
+      </c>
+      <c r="H11" s="4">
+        <v>242216</v>
+      </c>
+      <c r="I11" s="4">
+        <v>90200</v>
+      </c>
+      <c r="J11" s="4">
+        <v>4023453</v>
+      </c>
+      <c r="R11" s="5">
         <v>4</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
         <f>800000/100000</f>
         <v>8</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="4">
         <f>224572004045/1000000000</f>
         <v>224.572004045</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <f>244323702882/1000000000</f>
         <v>244.32370288199999</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="4">
         <v>628861537</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="4">
         <v>59541604</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="4">
         <v>120526690242</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="4">
         <v>319521391</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="4">
         <v>21154330981</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="4">
         <v>5329215</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="4">
         <v>682843</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AC11" s="4">
         <v>973636</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AD11" s="4">
         <v>17142361450</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AE11" s="4">
         <v>804444371</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AF11" s="4">
         <v>27.059000000000001</v>
       </c>
     </row>
@@ -1305,29 +1288,29 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
-        <v>5488</v>
-      </c>
-      <c r="D12" s="5">
-        <v>9031</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4716</v>
-      </c>
-      <c r="F12" s="5">
-        <v>7614</v>
-      </c>
-      <c r="G12" s="5">
-        <v>158264</v>
-      </c>
-      <c r="H12" s="5">
-        <v>247342</v>
-      </c>
-      <c r="I12" s="5">
-        <v>312380</v>
-      </c>
-      <c r="J12" s="5">
-        <v>682843</v>
+      <c r="C12" s="4">
+        <v>51964</v>
+      </c>
+      <c r="D12" s="4">
+        <v>83477</v>
+      </c>
+      <c r="E12" s="4">
+        <v>120095</v>
+      </c>
+      <c r="F12" s="4">
+        <v>187555</v>
+      </c>
+      <c r="G12" s="4">
+        <v>80581</v>
+      </c>
+      <c r="H12" s="4">
+        <v>108633</v>
+      </c>
+      <c r="I12" s="4">
+        <v>51024</v>
+      </c>
+      <c r="J12" s="4">
+        <v>70038</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -1337,29 +1320,29 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5">
-        <v>81087</v>
-      </c>
-      <c r="D13" s="5">
-        <v>185809</v>
-      </c>
-      <c r="E13" s="5">
-        <v>88687</v>
-      </c>
-      <c r="F13" s="5">
-        <v>140474</v>
-      </c>
-      <c r="G13" s="5">
-        <v>237075</v>
-      </c>
-      <c r="H13" s="5">
-        <v>476437</v>
-      </c>
-      <c r="I13" s="5">
-        <v>493058</v>
-      </c>
-      <c r="J13" s="5">
-        <v>973636</v>
+      <c r="C13" s="4">
+        <v>38176</v>
+      </c>
+      <c r="D13" s="4">
+        <v>77121</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45589</v>
+      </c>
+      <c r="F13" s="4">
+        <v>94639</v>
+      </c>
+      <c r="G13" s="4">
+        <v>61604</v>
+      </c>
+      <c r="H13" s="4">
+        <v>116499</v>
+      </c>
+      <c r="I13" s="4">
+        <v>92799</v>
+      </c>
+      <c r="J13" s="4">
+        <v>181020</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -1369,29 +1352,29 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5">
-        <v>7061629193</v>
-      </c>
-      <c r="D14" s="5">
-        <v>15839677214</v>
-      </c>
-      <c r="E14" s="5">
-        <v>7371020488</v>
-      </c>
-      <c r="F14" s="5">
-        <v>16138104975</v>
-      </c>
-      <c r="G14" s="5">
-        <v>8459147915</v>
-      </c>
-      <c r="H14" s="5">
-        <v>17588216779</v>
-      </c>
-      <c r="I14" s="5">
-        <v>8048364468</v>
-      </c>
-      <c r="J14" s="5">
-        <v>17142361450</v>
+      <c r="C14" s="4">
+        <v>8727644305</v>
+      </c>
+      <c r="D14" s="4">
+        <v>19890767276</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9083382439</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20160303761</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9814718700</v>
+      </c>
+      <c r="H14" s="4">
+        <v>21043827797</v>
+      </c>
+      <c r="I14" s="4">
+        <v>11054716356</v>
+      </c>
+      <c r="J14" s="4">
+        <v>23129576940</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -1401,29 +1384,29 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5">
-        <v>389073555</v>
-      </c>
-      <c r="D15" s="5">
-        <v>812456302</v>
-      </c>
-      <c r="E15" s="5">
-        <v>390303625</v>
-      </c>
-      <c r="F15" s="5">
-        <v>816197590</v>
-      </c>
-      <c r="G15" s="5">
-        <v>390068850</v>
-      </c>
-      <c r="H15" s="5">
-        <v>811772546</v>
-      </c>
-      <c r="I15" s="5">
-        <v>385529476</v>
-      </c>
-      <c r="J15" s="5">
-        <v>804444371</v>
+      <c r="C15" s="4">
+        <v>583125176</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1255069293</v>
+      </c>
+      <c r="E15" s="4">
+        <v>577677343</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1251732442</v>
+      </c>
+      <c r="G15" s="4">
+        <v>584898762</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1251634118</v>
+      </c>
+      <c r="I15" s="4">
+        <v>588927139</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1254963592</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -1433,78 +1416,78 @@
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5">
-        <v>23.825900000000001</v>
-      </c>
-      <c r="D16" s="5">
-        <v>57.738999999999997</v>
-      </c>
-      <c r="E16" s="5">
-        <v>14.053000000000001</v>
-      </c>
-      <c r="F16" s="5">
-        <v>33.329000000000001</v>
-      </c>
-      <c r="G16" s="5">
-        <v>14.2601</v>
-      </c>
-      <c r="H16" s="5">
-        <v>32.292000000000002</v>
-      </c>
-      <c r="I16" s="5">
-        <v>11.938000000000001</v>
-      </c>
-      <c r="J16" s="5">
-        <v>27.059000000000001</v>
+      <c r="C16" s="4">
+        <v>14.994</v>
+      </c>
+      <c r="D16" s="4">
+        <v>34.063000000000002</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.9764999999999997</v>
+      </c>
+      <c r="F16" s="4">
+        <v>19.8674</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6.3609</v>
+      </c>
+      <c r="H16" s="4">
+        <v>13.179600000000001</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5.3792</v>
+      </c>
+      <c r="J16" s="4">
+        <v>11.632</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1512,481 +1495,481 @@
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <f t="shared" ref="C25:C29" si="0">C4/A4</f>
-        <v>57.576426671</v>
-      </c>
-      <c r="D25" s="5">
+        <v>59.391411425999998</v>
+      </c>
+      <c r="D25" s="4">
         <f t="shared" ref="D25:D26" si="1">D4/A4</f>
-        <v>140.153888489</v>
-      </c>
-      <c r="E25" s="5">
+        <v>135.23394950599999</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" ref="E25:E26" si="2">E4/A4</f>
-        <v>61.528293691999998</v>
-      </c>
-      <c r="F25" s="5">
+        <v>64.357536593000006</v>
+      </c>
+      <c r="F25" s="4">
         <f t="shared" ref="F25:F26" si="3">F4/A4</f>
-        <v>148.772113163</v>
-      </c>
-      <c r="G25" s="5">
+        <v>142.864446673</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" ref="G25:G26" si="4">G4/A4</f>
-        <v>89.618590836999999</v>
-      </c>
-      <c r="H25" s="5">
+        <v>78.371448963999995</v>
+      </c>
+      <c r="H25" s="4">
         <f t="shared" ref="H25:H26" si="5">H4/A4</f>
-        <v>199.52297292200001</v>
-      </c>
-      <c r="I25" s="5">
+        <v>159.75272822400001</v>
+      </c>
+      <c r="I25" s="4">
         <f t="shared" ref="I25:I26" si="6">I4/A4</f>
-        <v>98.164527582000005</v>
-      </c>
-      <c r="J25" s="5">
+        <v>114.663656015</v>
+      </c>
+      <c r="J25" s="4">
         <f t="shared" ref="J25:J26" si="7">J4/A4</f>
-        <v>224.572004045</v>
+        <v>243.81461345100001</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
-        <v>102.581070428</v>
-      </c>
-      <c r="D26" s="5">
+        <v>103.65604129099999</v>
+      </c>
+      <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>240.27767523399999</v>
-      </c>
-      <c r="E26" s="5">
+        <v>242.77591764499999</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="2"/>
-        <v>103.590498919</v>
-      </c>
-      <c r="F26" s="5">
+        <v>105.88778010599999</v>
+      </c>
+      <c r="F26" s="4">
         <f t="shared" si="3"/>
-        <v>241.06696385000001</v>
-      </c>
-      <c r="G26" s="5">
+        <v>244.612982004</v>
+      </c>
+      <c r="G26" s="4">
         <f t="shared" si="4"/>
-        <v>107.344798848</v>
-      </c>
-      <c r="H26" s="5">
+        <v>108.85687180399999</v>
+      </c>
+      <c r="H26" s="4">
         <f t="shared" si="5"/>
-        <v>247.07684326200001</v>
-      </c>
-      <c r="I26" s="5">
+        <v>248.05494614200001</v>
+      </c>
+      <c r="I26" s="4">
         <f t="shared" si="6"/>
-        <v>105.417172814</v>
-      </c>
-      <c r="J26" s="5">
+        <v>112.527323146</v>
+      </c>
+      <c r="J26" s="4">
         <f t="shared" si="7"/>
-        <v>244.32370288199999</v>
+        <v>256.13280379399998</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
-        <v>105.261837</v>
-      </c>
-      <c r="D27" s="5">
+        <v>88.947239999999994</v>
+      </c>
+      <c r="D27" s="4">
         <f>D6/A6</f>
-        <v>341.43261799999999</v>
-      </c>
-      <c r="E27" s="5">
+        <v>279.67957899999999</v>
+      </c>
+      <c r="E27" s="4">
         <f>E6/A6</f>
-        <v>167.46631300000001</v>
-      </c>
-      <c r="F27" s="5">
+        <v>126.56222099999999</v>
+      </c>
+      <c r="F27" s="4">
         <f>F6/A6</f>
-        <v>730.90025400000002</v>
-      </c>
-      <c r="G27" s="5">
+        <v>339.22745500000002</v>
+      </c>
+      <c r="G27" s="4">
         <f>G6/A6</f>
-        <v>160.71804399999999</v>
-      </c>
-      <c r="H27" s="5">
+        <v>209.25166400000001</v>
+      </c>
+      <c r="H27" s="4">
         <f>H6/A6</f>
-        <v>422.58114799999998</v>
-      </c>
-      <c r="I27" s="5">
+        <v>465.63318900000002</v>
+      </c>
+      <c r="I27" s="4">
         <f>I6/A6</f>
-        <v>174.39240599999999</v>
-      </c>
-      <c r="J27" s="5">
+        <v>219.563357</v>
+      </c>
+      <c r="J27" s="4">
         <f>J6/A6</f>
-        <v>628.861537</v>
+        <v>506.13474400000001</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
-        <v>3.2009940000000001</v>
-      </c>
-      <c r="D28" s="5">
+        <v>1.4345950000000001</v>
+      </c>
+      <c r="D28" s="4">
         <f t="shared" ref="D28:D37" si="8">D7/A7</f>
-        <v>76.540655000000001</v>
-      </c>
-      <c r="E28" s="5">
+        <v>1.8057799999999999</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" ref="E28:E37" si="9">E7/A7</f>
-        <v>3.9129839999999998</v>
-      </c>
-      <c r="F28" s="5">
+        <v>0.67598100000000005</v>
+      </c>
+      <c r="F28" s="4">
         <f t="shared" ref="F28:F37" si="10">F7/A7</f>
-        <v>68.462894000000006</v>
-      </c>
-      <c r="G28" s="5">
+        <v>2.9023669999999999</v>
+      </c>
+      <c r="G28" s="4">
         <f t="shared" ref="G28:G37" si="11">G7/A7</f>
-        <v>4.4405729999999997</v>
-      </c>
-      <c r="H28" s="5">
+        <v>0.39551500000000001</v>
+      </c>
+      <c r="H28" s="4">
         <f t="shared" ref="H28:H37" si="12">H7/A7</f>
-        <v>66.194868999999997</v>
-      </c>
-      <c r="I28" s="5">
+        <v>1.0963499999999999</v>
+      </c>
+      <c r="I28" s="4">
         <f t="shared" ref="I28:I37" si="13">I7/A7</f>
-        <v>3.956264</v>
-      </c>
-      <c r="J28" s="5">
+        <v>0.50392899999999996</v>
+      </c>
+      <c r="J28" s="4">
         <f t="shared" ref="J28:J37" si="14">J7/A7</f>
-        <v>59.541604</v>
+        <v>2.2683689999999999</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
-        <v>51.203157836000003</v>
-      </c>
-      <c r="D29" s="5">
+        <v>51.102978159999999</v>
+      </c>
+      <c r="D29" s="4">
         <f t="shared" si="8"/>
-        <v>120.03582809</v>
-      </c>
-      <c r="E29" s="5">
+        <v>120.145670401</v>
+      </c>
+      <c r="E29" s="4">
         <f t="shared" si="9"/>
-        <v>51.351757370000001</v>
-      </c>
-      <c r="F29" s="5">
+        <v>51.644393409000003</v>
+      </c>
+      <c r="F29" s="4">
         <f t="shared" si="10"/>
-        <v>119.926501183</v>
-      </c>
-      <c r="G29" s="5">
+        <v>119.56081147800001</v>
+      </c>
+      <c r="G29" s="4">
         <f t="shared" si="11"/>
-        <v>51.786406528000001</v>
-      </c>
-      <c r="H29" s="5">
+        <v>51.655900987999999</v>
+      </c>
+      <c r="H29" s="4">
         <f t="shared" si="12"/>
-        <v>122.93754143</v>
-      </c>
-      <c r="I29" s="5">
+        <v>121.695226488</v>
+      </c>
+      <c r="I29" s="4">
         <f t="shared" si="13"/>
-        <v>51.614320939000002</v>
-      </c>
-      <c r="J29" s="5">
+        <v>52.074639712</v>
+      </c>
+      <c r="J29" s="4">
         <f t="shared" si="14"/>
-        <v>120.526690242</v>
+        <v>122.328619686</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <f t="shared" ref="C30:C37" si="15">C9/A9</f>
-        <v>12.22274</v>
-      </c>
-      <c r="D30" s="5">
+        <v>1.1236900000000001</v>
+      </c>
+      <c r="D30" s="4">
         <f t="shared" si="8"/>
-        <v>2304.9958499999998</v>
-      </c>
-      <c r="E30" s="5">
+        <v>6.4793900000000004</v>
+      </c>
+      <c r="E30" s="4">
         <f t="shared" si="9"/>
-        <v>14.56765</v>
-      </c>
-      <c r="F30" s="5">
+        <v>1.81677</v>
+      </c>
+      <c r="F30" s="4">
         <f t="shared" si="10"/>
-        <v>2311.4221400000001</v>
-      </c>
-      <c r="G30" s="5">
+        <v>11.775840000000001</v>
+      </c>
+      <c r="G30" s="4">
         <f t="shared" si="11"/>
-        <v>541.76170999999999</v>
-      </c>
-      <c r="H30" s="5">
+        <v>5.5166500000000003</v>
+      </c>
+      <c r="H30" s="4">
         <f t="shared" si="12"/>
-        <v>2904.0408600000001</v>
-      </c>
-      <c r="I30" s="5">
+        <v>62.530230000000003</v>
+      </c>
+      <c r="I30" s="4">
         <f t="shared" si="13"/>
-        <v>946.83334000000002</v>
-      </c>
-      <c r="J30" s="5">
+        <v>7.90585</v>
+      </c>
+      <c r="J30" s="4">
         <f t="shared" si="14"/>
-        <v>3195.2139099999999</v>
+        <v>1752.7023099999999</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <f t="shared" si="15"/>
-        <v>9.0572481020000009</v>
-      </c>
-      <c r="D31" s="5">
+        <v>9.0154158160000009</v>
+      </c>
+      <c r="D31" s="4">
         <f t="shared" si="8"/>
-        <v>21.065227320999998</v>
-      </c>
-      <c r="E31" s="5">
+        <v>21.340000904</v>
+      </c>
+      <c r="E31" s="4">
         <f t="shared" si="9"/>
-        <v>9.0575024840000005</v>
-      </c>
-      <c r="F31" s="5">
+        <v>9.0774262760000006</v>
+      </c>
+      <c r="F31" s="4">
         <f t="shared" si="10"/>
-        <v>21.032754588</v>
-      </c>
-      <c r="G31" s="5">
+        <v>20.880980393000002</v>
+      </c>
+      <c r="G31" s="4">
         <f t="shared" si="11"/>
-        <v>9.1886890650000002</v>
-      </c>
-      <c r="H31" s="5">
+        <v>9.1983713060000003</v>
+      </c>
+      <c r="H31" s="4">
         <f t="shared" si="12"/>
-        <v>21.264588083</v>
-      </c>
-      <c r="I31" s="5">
+        <v>21.021737761000001</v>
+      </c>
+      <c r="I31" s="4">
         <f t="shared" si="13"/>
-        <v>9.05226869</v>
-      </c>
-      <c r="J31" s="5">
+        <v>9.0003356379999992</v>
+      </c>
+      <c r="J31" s="4">
         <f t="shared" si="14"/>
-        <v>21.154330981000001</v>
+        <v>21.148751373</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <f t="shared" si="15"/>
-        <v>11.62</v>
-      </c>
-      <c r="D32" s="5">
+        <v>2.0280999999999998</v>
+      </c>
+      <c r="D32" s="4">
         <f t="shared" si="8"/>
-        <v>761.34479999999996</v>
-      </c>
-      <c r="E32" s="5">
+        <v>14.775</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="9"/>
-        <v>13.629200000000001</v>
-      </c>
-      <c r="F32" s="5">
+        <v>2.8098000000000001</v>
+      </c>
+      <c r="F32" s="4">
         <f t="shared" si="10"/>
-        <v>838.30610000000001</v>
-      </c>
-      <c r="G32" s="5">
+        <v>13.6333</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" si="11"/>
-        <v>88.808599999999998</v>
-      </c>
-      <c r="H32" s="5">
+        <v>4.8731999999999998</v>
+      </c>
+      <c r="H32" s="4">
         <f t="shared" si="12"/>
-        <v>578.31640000000004</v>
-      </c>
-      <c r="I32" s="5">
+        <v>24.221599999999999</v>
+      </c>
+      <c r="I32" s="4">
         <f t="shared" si="13"/>
-        <v>168.76859999999999</v>
-      </c>
-      <c r="J32" s="5">
+        <v>9.02</v>
+      </c>
+      <c r="J32" s="4">
         <f t="shared" si="14"/>
-        <v>532.92150000000004</v>
+        <v>402.34530000000001</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <f t="shared" si="15"/>
-        <v>5.4880000000000004</v>
-      </c>
-      <c r="D33" s="5">
+        <v>51.963999999999999</v>
+      </c>
+      <c r="D33" s="4">
         <f t="shared" si="8"/>
-        <v>9.0310000000000006</v>
-      </c>
-      <c r="E33" s="5">
+        <v>83.477000000000004</v>
+      </c>
+      <c r="E33" s="4">
         <f t="shared" si="9"/>
-        <v>4.7160000000000002</v>
-      </c>
-      <c r="F33" s="5">
+        <v>120.095</v>
+      </c>
+      <c r="F33" s="4">
         <f t="shared" si="10"/>
-        <v>7.6139999999999999</v>
-      </c>
-      <c r="G33" s="5">
+        <v>187.55500000000001</v>
+      </c>
+      <c r="G33" s="4">
         <f t="shared" si="11"/>
-        <v>158.26400000000001</v>
-      </c>
-      <c r="H33" s="5">
+        <v>80.581000000000003</v>
+      </c>
+      <c r="H33" s="4">
         <f t="shared" si="12"/>
-        <v>247.34200000000001</v>
-      </c>
-      <c r="I33" s="5">
+        <v>108.633</v>
+      </c>
+      <c r="I33" s="4">
         <f t="shared" si="13"/>
-        <v>312.38</v>
-      </c>
-      <c r="J33" s="5">
+        <v>51.024000000000001</v>
+      </c>
+      <c r="J33" s="4">
         <f t="shared" si="14"/>
-        <v>682.84299999999996</v>
+        <v>70.037999999999997</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <f t="shared" si="15"/>
-        <v>8.1087000000000007</v>
-      </c>
-      <c r="D34" s="5">
+        <v>3.8176000000000001</v>
+      </c>
+      <c r="D34" s="4">
         <f t="shared" si="8"/>
-        <v>18.5809</v>
-      </c>
-      <c r="E34" s="5">
+        <v>7.7121000000000004</v>
+      </c>
+      <c r="E34" s="4">
         <f t="shared" si="9"/>
-        <v>8.8687000000000005</v>
-      </c>
-      <c r="F34" s="5">
+        <v>4.5589000000000004</v>
+      </c>
+      <c r="F34" s="4">
         <f t="shared" si="10"/>
-        <v>14.0474</v>
-      </c>
-      <c r="G34" s="5">
+        <v>9.4639000000000006</v>
+      </c>
+      <c r="G34" s="4">
         <f t="shared" si="11"/>
-        <v>23.7075</v>
-      </c>
-      <c r="H34" s="5">
+        <v>6.1604000000000001</v>
+      </c>
+      <c r="H34" s="4">
         <f t="shared" si="12"/>
-        <v>47.643700000000003</v>
-      </c>
-      <c r="I34" s="5">
+        <v>11.649900000000001</v>
+      </c>
+      <c r="I34" s="4">
         <f t="shared" si="13"/>
-        <v>49.305799999999998</v>
-      </c>
-      <c r="J34" s="5">
+        <v>9.2798999999999996</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="14"/>
-        <v>97.363600000000005</v>
+        <v>18.102</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <f t="shared" si="15"/>
-        <v>70.616291930000003</v>
-      </c>
-      <c r="D35" s="5">
+        <v>87.276443049999997</v>
+      </c>
+      <c r="D35" s="4">
         <f t="shared" si="8"/>
-        <v>158.39677214</v>
-      </c>
-      <c r="E35" s="5">
+        <v>198.90767276</v>
+      </c>
+      <c r="E35" s="4">
         <f t="shared" si="9"/>
-        <v>73.710204880000006</v>
-      </c>
-      <c r="F35" s="5">
+        <v>90.833824390000004</v>
+      </c>
+      <c r="F35" s="4">
         <f t="shared" si="10"/>
-        <v>161.38104974999999</v>
-      </c>
-      <c r="G35" s="5">
+        <v>201.60303761</v>
+      </c>
+      <c r="G35" s="4">
         <f t="shared" si="11"/>
-        <v>84.591479149999998</v>
-      </c>
-      <c r="H35" s="5">
+        <v>98.147187000000002</v>
+      </c>
+      <c r="H35" s="4">
         <f t="shared" si="12"/>
-        <v>175.88216779000001</v>
-      </c>
-      <c r="I35" s="5">
+        <v>210.43827797</v>
+      </c>
+      <c r="I35" s="4">
         <f t="shared" si="13"/>
-        <v>80.483644679999998</v>
-      </c>
-      <c r="J35" s="5">
+        <v>110.54716356</v>
+      </c>
+      <c r="J35" s="4">
         <f t="shared" si="14"/>
-        <v>171.42361450000001</v>
+        <v>231.29576940000001</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <f t="shared" si="15"/>
-        <v>38.907355500000001</v>
-      </c>
-      <c r="D36" s="5">
+        <v>58.3125176</v>
+      </c>
+      <c r="D36" s="4">
         <f t="shared" si="8"/>
-        <v>81.245630199999994</v>
-      </c>
-      <c r="E36" s="5">
+        <v>125.5069293</v>
+      </c>
+      <c r="E36" s="4">
         <f t="shared" si="9"/>
-        <v>39.030362500000003</v>
-      </c>
-      <c r="F36" s="5">
+        <v>57.767734300000001</v>
+      </c>
+      <c r="F36" s="4">
         <f t="shared" si="10"/>
-        <v>81.619759000000002</v>
-      </c>
-      <c r="G36" s="5">
+        <v>125.1732442</v>
+      </c>
+      <c r="G36" s="4">
         <f t="shared" si="11"/>
-        <v>39.006884999999997</v>
-      </c>
-      <c r="H36" s="5">
+        <v>58.489876199999998</v>
+      </c>
+      <c r="H36" s="4">
         <f t="shared" si="12"/>
-        <v>81.177254599999998</v>
-      </c>
-      <c r="I36" s="5">
+        <v>125.16341180000001</v>
+      </c>
+      <c r="I36" s="4">
         <f t="shared" si="13"/>
-        <v>38.552947600000003</v>
-      </c>
-      <c r="J36" s="5">
+        <v>58.892713899999997</v>
+      </c>
+      <c r="J36" s="4">
         <f t="shared" si="14"/>
-        <v>80.444437100000002</v>
+        <v>125.4963592</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <f t="shared" si="15"/>
-        <v>23.825900000000001</v>
-      </c>
-      <c r="D37" s="5">
+        <v>14.994</v>
+      </c>
+      <c r="D37" s="4">
         <f t="shared" si="8"/>
-        <v>57.738999999999997</v>
-      </c>
-      <c r="E37" s="5">
+        <v>34.063000000000002</v>
+      </c>
+      <c r="E37" s="4">
         <f t="shared" si="9"/>
-        <v>14.053000000000001</v>
-      </c>
-      <c r="F37" s="5">
+        <v>8.9764999999999997</v>
+      </c>
+      <c r="F37" s="4">
         <f t="shared" si="10"/>
-        <v>33.329000000000001</v>
-      </c>
-      <c r="G37" s="5">
+        <v>19.8674</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="11"/>
-        <v>14.2601</v>
-      </c>
-      <c r="H37" s="5">
+        <v>6.3609</v>
+      </c>
+      <c r="H37" s="4">
         <f t="shared" si="12"/>
-        <v>32.292000000000002</v>
-      </c>
-      <c r="I37" s="5">
+        <v>13.179600000000001</v>
+      </c>
+      <c r="I37" s="4">
         <f t="shared" si="13"/>
-        <v>11.938000000000001</v>
-      </c>
-      <c r="J37" s="5">
+        <v>5.3792</v>
+      </c>
+      <c r="J37" s="4">
         <f t="shared" si="14"/>
-        <v>27.059000000000001</v>
+        <v>11.632</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CE\CE3D-1\ComArch\Ass\Parallel_shell_sort_comarch_assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phol\Desktop\github\Parallel_shell_sort_comarch_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F31F6-E384-4890-8291-573849276FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7115CD86-D718-4987-955B-657C5669E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>cpu-cycles</t>
   </si>
@@ -102,26 +103,56 @@
     <t>Raw</t>
   </si>
   <si>
-    <t>1 Thread</t>
+    <t>Number of Threads</t>
   </si>
   <si>
-    <t>2 Thread</t>
+    <t>Workloads</t>
   </si>
   <si>
-    <t>4 Thread</t>
+    <t>CPU-Cycles</t>
   </si>
   <si>
-    <t>หัวข้อ</t>
+    <t>Instructions</t>
   </si>
   <si>
-    <t>8 Thread</t>
+    <t>Cache-References</t>
+  </si>
+  <si>
+    <t>Cache-Misses</t>
+  </si>
+  <si>
+    <t>dTLB-Loads</t>
+  </si>
+  <si>
+    <t>dTLB-Load-Misses</t>
+  </si>
+  <si>
+    <t>dTLB-Stores</t>
+  </si>
+  <si>
+    <t>dTLB-Store-Misses</t>
+  </si>
+  <si>
+    <t>iTLB-Loads</t>
+  </si>
+  <si>
+    <t>iTLB-Load-Misses</t>
+  </si>
+  <si>
+    <t>Branch-Loads</t>
+  </si>
+  <si>
+    <t>Branch-Load-Misses</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,13 +167,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -172,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -183,12 +246,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,8 +280,3831 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU-Cycles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$C$23,Sheet1!$E$23,Sheet1!$G$23,Sheet1!$I$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$25,Sheet1!$E$25,Sheet1!$G$25,Sheet1!$I$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>59.391411425999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.357536593000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.371448963999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.663656015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DDB1-4393-8E1C-ECBB85C5124F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$C$23,Sheet1!$E$23,Sheet1!$G$23,Sheet1!$I$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$25,Sheet1!$F$25,Sheet1!$H$25,Sheet1!$J$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135.23394950599999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.864446673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.75272822400001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243.81461345100001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DDB1-4393-8E1C-ECBB85C5124F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491127360"/>
+        <c:axId val="491127776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491127360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491127776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491127776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU-Cycles (x10^9)  </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3205685230244737E-2"/>
+              <c:y val="0.33952103814087042"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491127360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent6">
+          <a:lumMod val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>846894</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>39757</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="499880" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92D874B-2145-4AA1-8344-7F88EB5B1931}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2466144" y="4078357"/>
+              <a:ext cx="499880" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>9</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92D874B-2145-4AA1-8344-7F88EB5B1931}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2466144" y="4078357"/>
+              <a:ext cx="499880" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^9)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>916468</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>34787</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="499880" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02BA0301-2CA5-4DD6-9A23-0333E989B710}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2535718" y="4311512"/>
+              <a:ext cx="499880" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>9</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02BA0301-2CA5-4DD6-9A23-0333E989B710}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2535718" y="4311512"/>
+              <a:ext cx="499880" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^9)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1330187</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35615</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="502702" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B70B5A-43EE-41FB-949C-709EF08F61F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2949437" y="4550465"/>
+              <a:ext cx="502702" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>6</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B70B5A-43EE-41FB-949C-709EF08F61F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2949437" y="4550465"/>
+              <a:ext cx="502702" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1025801</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44726</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="502702" cy="177741"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432AB3B9-ED21-454B-95AE-2A33BEC8B728}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2645051" y="4797701"/>
+              <a:ext cx="502702" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432AB3B9-ED21-454B-95AE-2A33BEC8B728}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2645051" y="4797701"/>
+              <a:ext cx="502702" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>890794</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40998</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="499880" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793DE1F9-ECAC-48AF-97E6-E6E3EFC432E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2510044" y="5032098"/>
+              <a:ext cx="499880" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>9</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793DE1F9-ECAC-48AF-97E6-E6E3EFC432E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2510044" y="5032098"/>
+              <a:ext cx="499880" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^9)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1361660</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>34787</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="502702" cy="177741"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66376FB7-9DAF-44CA-9A5D-C7DED614A5DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2980910" y="5264012"/>
+              <a:ext cx="502702" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66376FB7-9DAF-44CA-9A5D-C7DED614A5DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2980910" y="5264012"/>
+              <a:ext cx="502702" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904460</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="499880" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC2EE69-BB89-4596-B451-2A9C3B27113B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2523710" y="5505450"/>
+              <a:ext cx="499880" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>9</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC2EE69-BB89-4596-B451-2A9C3B27113B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2523710" y="5505450"/>
+              <a:ext cx="499880" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^9)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1383609</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="502702" cy="174663"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6ECA45-E348-4CFC-8361-11086CA86D1C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3002859" y="5755170"/>
+              <a:ext cx="502702" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6ECA45-E348-4CFC-8361-11086CA86D1C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3002859" y="5755170"/>
+              <a:ext cx="502702" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>828260</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44726</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="502702" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7982AF00-FE31-4CBD-97E4-4EFB81CC3198}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2447510" y="5988326"/>
+              <a:ext cx="502702" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7982AF00-FE31-4CBD-97E4-4EFB81CC3198}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2447510" y="5988326"/>
+              <a:ext cx="502702" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1297884</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>40998</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="502702" cy="174663"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A1C606-99C3-4DD0-8C9E-0B44D955CAE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2917134" y="6222723"/>
+              <a:ext cx="502702" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A1C606-99C3-4DD0-8C9E-0B44D955CAE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2917134" y="6222723"/>
+              <a:ext cx="502702" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1045679</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43068</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="502702" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0E7A06-7882-4CFC-98BD-EEE18F8B6B82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2664929" y="6462918"/>
+              <a:ext cx="502702" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>8</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0E7A06-7882-4CFC-98BD-EEE18F8B6B82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2664929" y="6462918"/>
+              <a:ext cx="502702" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>8</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504536</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48866</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="502702" cy="174407"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6269B8A4-58F3-4F1A-8C1C-1F2AB99A53FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3123786" y="6706841"/>
+              <a:ext cx="502702" cy="174407"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(×10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>7</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6269B8A4-58F3-4F1A-8C1C-1F2AB99A53FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3123786" y="6706841"/>
+              <a:ext cx="502702" cy="174407"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(×10〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>7</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1034822</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>233361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>989613</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9C6C5F-1D7F-4DCF-9AF2-F07FF48C51B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,14 +4402,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BC9815-2855-4CB4-8B00-AD41286DC877}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
@@ -548,22 +4448,22 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -640,7 +4540,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>1000000000</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -721,7 +4621,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>1000000000</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -802,7 +4702,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>1000000</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -882,8 +4782,8 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1000000</v>
+      <c r="A7" s="6">
+        <v>100000</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -962,7 +4862,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>1000000000</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1042,7 +4942,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>100000</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1122,7 +5022,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>1000000000</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1202,7 +5102,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>10000</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1282,7 +5182,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>1000</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1314,7 +5214,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>10000</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1346,7 +5246,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>100000000</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1378,7 +5278,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>10000000</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1410,7 +5310,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1441,534 +5341,534 @@
         <v>11.632</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
+        <v>4</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13">
+        <v>8</v>
+      </c>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9">
+        <f>C4/A4</f>
+        <v>59.391411425999998</v>
+      </c>
+      <c r="D25" s="9">
+        <f>D4/A4</f>
+        <v>135.23394950599999</v>
+      </c>
+      <c r="E25" s="9">
+        <f>E4/A4</f>
+        <v>64.357536593000006</v>
+      </c>
+      <c r="F25" s="9">
+        <f>F4/A4</f>
+        <v>142.864446673</v>
+      </c>
+      <c r="G25" s="9">
+        <f>G4/A4</f>
+        <v>78.371448963999995</v>
+      </c>
+      <c r="H25" s="9">
+        <f>H4/A4</f>
+        <v>159.75272822400001</v>
+      </c>
+      <c r="I25" s="9">
+        <f>I4/A4</f>
+        <v>114.663656015</v>
+      </c>
+      <c r="J25" s="9">
+        <f>J4/A4</f>
+        <v>243.81461345100001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
+      <c r="C26" s="12">
+        <f>C5/A5</f>
+        <v>103.65604129099999</v>
+      </c>
+      <c r="D26" s="12">
+        <f>D5/A5</f>
+        <v>242.77591764499999</v>
+      </c>
+      <c r="E26" s="12">
+        <f>E5/A5</f>
+        <v>105.88778010599999</v>
+      </c>
+      <c r="F26" s="12">
+        <f>F5/A5</f>
+        <v>244.612982004</v>
+      </c>
+      <c r="G26" s="12">
+        <f>G5/A5</f>
+        <v>108.85687180399999</v>
+      </c>
+      <c r="H26" s="12">
+        <f>H5/A5</f>
+        <v>248.05494614200001</v>
+      </c>
+      <c r="I26" s="12">
+        <f>I5/A5</f>
+        <v>112.527323146</v>
+      </c>
+      <c r="J26" s="12">
+        <f>J5/A5</f>
+        <v>256.13280379399998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" ref="C25:C29" si="0">C4/A4</f>
-        <v>59.391411425999998</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" ref="D25:D26" si="1">D4/A4</f>
-        <v>135.23394950599999</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" ref="E25:E26" si="2">E4/A4</f>
-        <v>64.357536593000006</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" ref="F25:F26" si="3">F4/A4</f>
-        <v>142.864446673</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" ref="G25:G26" si="4">G4/A4</f>
-        <v>78.371448963999995</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" ref="H25:H26" si="5">H4/A4</f>
-        <v>159.75272822400001</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" ref="I25:I26" si="6">I4/A4</f>
-        <v>114.663656015</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" ref="J25:J26" si="7">J4/A4</f>
-        <v>243.81461345100001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="0"/>
-        <v>103.65604129099999</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="1"/>
-        <v>242.77591764499999</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="2"/>
-        <v>105.88778010599999</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="3"/>
-        <v>244.612982004</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="4"/>
-        <v>108.85687180399999</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="5"/>
-        <v>248.05494614200001</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="6"/>
-        <v>112.527323146</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="7"/>
-        <v>256.13280379399998</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="0"/>
+      <c r="C27" s="9">
+        <f>C6/A6</f>
         <v>88.947239999999994</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="9">
         <f>D6/A6</f>
         <v>279.67957899999999</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="9">
         <f>E6/A6</f>
         <v>126.56222099999999</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="9">
         <f>F6/A6</f>
         <v>339.22745500000002</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="9">
         <f>G6/A6</f>
         <v>209.25166400000001</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="9">
         <f>H6/A6</f>
         <v>465.63318900000002</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="9">
         <f>I6/A6</f>
         <v>219.563357</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="9">
         <f>J6/A6</f>
         <v>506.13474400000001</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4">
+    <row r="28" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12">
+        <f>C7/A7</f>
+        <v>14.34595</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" ref="D28:D37" si="0">D7/A7</f>
+        <v>18.0578</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" ref="E28:E37" si="1">E7/A7</f>
+        <v>6.7598099999999999</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" ref="F28:F37" si="2">F7/A7</f>
+        <v>29.023669999999999</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" ref="G28:G37" si="3">G7/A7</f>
+        <v>3.9551500000000002</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" ref="H28:H37" si="4">H7/A7</f>
+        <v>10.9635</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" ref="I28:I37" si="5">I7/A7</f>
+        <v>5.0392900000000003</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" ref="J28:J37" si="6">J7/A7</f>
+        <v>22.683689999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9">
+        <f>C8/A8</f>
+        <v>51.102978159999999</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="0"/>
-        <v>1.4345950000000001</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" ref="D28:D37" si="8">D7/A7</f>
-        <v>1.8057799999999999</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" ref="E28:E37" si="9">E7/A7</f>
-        <v>0.67598100000000005</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" ref="F28:F37" si="10">F7/A7</f>
-        <v>2.9023669999999999</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" ref="G28:G37" si="11">G7/A7</f>
-        <v>0.39551500000000001</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" ref="H28:H37" si="12">H7/A7</f>
-        <v>1.0963499999999999</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" ref="I28:I37" si="13">I7/A7</f>
-        <v>0.50392899999999996</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" ref="J28:J37" si="14">J7/A7</f>
-        <v>2.2683689999999999</v>
+        <v>120.145670401</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="1"/>
+        <v>51.644393409000003</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="2"/>
+        <v>119.56081147800001</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="3"/>
+        <v>51.655900987999999</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="4"/>
+        <v>121.695226488</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="5"/>
+        <v>52.074639712</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="6"/>
+        <v>122.328619686</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4">
+    <row r="30" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" ref="C30:C37" si="7">C9/A9</f>
+        <v>1.1236900000000001</v>
+      </c>
+      <c r="D30" s="12">
         <f t="shared" si="0"/>
-        <v>51.102978159999999</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="8"/>
-        <v>120.145670401</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="9"/>
-        <v>51.644393409000003</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="10"/>
-        <v>119.56081147800001</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="11"/>
-        <v>51.655900987999999</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="12"/>
-        <v>121.695226488</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="13"/>
-        <v>52.074639712</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="14"/>
-        <v>122.328619686</v>
+        <v>6.4793900000000004</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="1"/>
+        <v>1.81677</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="2"/>
+        <v>11.775840000000001</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="3"/>
+        <v>5.5166500000000003</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="4"/>
+        <v>62.530230000000003</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="5"/>
+        <v>7.90585</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="6"/>
+        <v>1752.7023099999999</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" ref="C30:C37" si="15">C9/A9</f>
-        <v>1.1236900000000001</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="8"/>
-        <v>6.4793900000000004</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="9"/>
-        <v>1.81677</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="10"/>
-        <v>11.775840000000001</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="11"/>
-        <v>5.5166500000000003</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="12"/>
-        <v>62.530230000000003</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="13"/>
-        <v>7.90585</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="14"/>
-        <v>1752.7023099999999</v>
+    <row r="31" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="7"/>
+        <v>9.0154158160000009</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="0"/>
+        <v>21.340000904</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="1"/>
+        <v>9.0774262760000006</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="2"/>
+        <v>20.880980393000002</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="3"/>
+        <v>9.1983713060000003</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="4"/>
+        <v>21.021737761000001</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="5"/>
+        <v>9.0003356379999992</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="6"/>
+        <v>21.148751373</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" si="15"/>
-        <v>9.0154158160000009</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="8"/>
-        <v>21.340000904</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="9"/>
-        <v>9.0774262760000006</v>
-      </c>
-      <c r="F31" s="4">
-        <f t="shared" si="10"/>
-        <v>20.880980393000002</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="11"/>
-        <v>9.1983713060000003</v>
-      </c>
-      <c r="H31" s="4">
-        <f t="shared" si="12"/>
-        <v>21.021737761000001</v>
-      </c>
-      <c r="I31" s="4">
-        <f t="shared" si="13"/>
-        <v>9.0003356379999992</v>
-      </c>
-      <c r="J31" s="4">
-        <f t="shared" si="14"/>
-        <v>21.148751373</v>
+    <row r="32" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" si="7"/>
+        <v>2.0280999999999998</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="0"/>
+        <v>14.775</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="1"/>
+        <v>2.8098000000000001</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="2"/>
+        <v>13.6333</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="3"/>
+        <v>4.8731999999999998</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="4"/>
+        <v>24.221599999999999</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="5"/>
+        <v>9.02</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="6"/>
+        <v>402.34530000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" si="15"/>
-        <v>2.0280999999999998</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="8"/>
-        <v>14.775</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="9"/>
-        <v>2.8098000000000001</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="10"/>
-        <v>13.6333</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="11"/>
-        <v>4.8731999999999998</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="12"/>
-        <v>24.221599999999999</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="13"/>
-        <v>9.02</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="14"/>
-        <v>402.34530000000001</v>
+    <row r="33" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="7"/>
+        <v>51.963999999999999</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="0"/>
+        <v>83.477000000000004</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="1"/>
+        <v>120.095</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="2"/>
+        <v>187.55500000000001</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="3"/>
+        <v>80.581000000000003</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="4"/>
+        <v>108.633</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="5"/>
+        <v>51.024000000000001</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="6"/>
+        <v>70.037999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="15"/>
-        <v>51.963999999999999</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" si="8"/>
-        <v>83.477000000000004</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="9"/>
-        <v>120.095</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="10"/>
-        <v>187.55500000000001</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="11"/>
-        <v>80.581000000000003</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="12"/>
-        <v>108.633</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" si="13"/>
-        <v>51.024000000000001</v>
-      </c>
-      <c r="J33" s="4">
-        <f t="shared" si="14"/>
-        <v>70.037999999999997</v>
+    <row r="34" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" si="7"/>
+        <v>3.8176000000000001</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="0"/>
+        <v>7.7121000000000004</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="1"/>
+        <v>4.5589000000000004</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="2"/>
+        <v>9.4639000000000006</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="3"/>
+        <v>6.1604000000000001</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="4"/>
+        <v>11.649900000000001</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2798999999999996</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" si="6"/>
+        <v>18.102</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="15"/>
-        <v>3.8176000000000001</v>
-      </c>
-      <c r="D34" s="4">
-        <f t="shared" si="8"/>
-        <v>7.7121000000000004</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="9"/>
-        <v>4.5589000000000004</v>
-      </c>
-      <c r="F34" s="4">
-        <f t="shared" si="10"/>
-        <v>9.4639000000000006</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="11"/>
-        <v>6.1604000000000001</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="12"/>
-        <v>11.649900000000001</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" si="13"/>
-        <v>9.2798999999999996</v>
-      </c>
-      <c r="J34" s="4">
-        <f t="shared" si="14"/>
-        <v>18.102</v>
+    <row r="35" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="7"/>
+        <v>87.276443049999997</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="0"/>
+        <v>198.90767276</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="1"/>
+        <v>90.833824390000004</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="2"/>
+        <v>201.60303761</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="3"/>
+        <v>98.147187000000002</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="4"/>
+        <v>210.43827797</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="5"/>
+        <v>110.54716356</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="6"/>
+        <v>231.29576940000001</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="15"/>
-        <v>87.276443049999997</v>
-      </c>
-      <c r="D35" s="4">
-        <f t="shared" si="8"/>
-        <v>198.90767276</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="9"/>
-        <v>90.833824390000004</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="10"/>
-        <v>201.60303761</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="11"/>
-        <v>98.147187000000002</v>
-      </c>
-      <c r="H35" s="4">
-        <f t="shared" si="12"/>
-        <v>210.43827797</v>
-      </c>
-      <c r="I35" s="4">
-        <f t="shared" si="13"/>
-        <v>110.54716356</v>
-      </c>
-      <c r="J35" s="4">
-        <f t="shared" si="14"/>
-        <v>231.29576940000001</v>
+    <row r="36" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" si="7"/>
+        <v>58.3125176</v>
+      </c>
+      <c r="D36" s="12">
+        <f t="shared" si="0"/>
+        <v>125.5069293</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="1"/>
+        <v>57.767734300000001</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="2"/>
+        <v>125.1732442</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="3"/>
+        <v>58.489876199999998</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" si="4"/>
+        <v>125.16341180000001</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="5"/>
+        <v>58.892713899999997</v>
+      </c>
+      <c r="J36" s="12">
+        <f t="shared" si="6"/>
+        <v>125.4963592</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="15"/>
-        <v>58.3125176</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" si="8"/>
-        <v>125.5069293</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="9"/>
-        <v>57.767734300000001</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="10"/>
-        <v>125.1732442</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="11"/>
-        <v>58.489876199999998</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" si="12"/>
-        <v>125.16341180000001</v>
-      </c>
-      <c r="I36" s="4">
-        <f t="shared" si="13"/>
-        <v>58.892713899999997</v>
-      </c>
-      <c r="J36" s="4">
-        <f t="shared" si="14"/>
-        <v>125.4963592</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" si="15"/>
+    <row r="37" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="7"/>
         <v>14.994</v>
       </c>
-      <c r="D37" s="4">
-        <f t="shared" si="8"/>
+      <c r="D37" s="9">
+        <f t="shared" si="0"/>
         <v>34.063000000000002</v>
       </c>
-      <c r="E37" s="4">
-        <f t="shared" si="9"/>
+      <c r="E37" s="9">
+        <f t="shared" si="1"/>
         <v>8.9764999999999997</v>
       </c>
-      <c r="F37" s="4">
-        <f t="shared" si="10"/>
+      <c r="F37" s="9">
+        <f t="shared" si="2"/>
         <v>19.8674</v>
       </c>
-      <c r="G37" s="4">
-        <f t="shared" si="11"/>
+      <c r="G37" s="9">
+        <f t="shared" si="3"/>
         <v>6.3609</v>
       </c>
-      <c r="H37" s="4">
-        <f t="shared" si="12"/>
+      <c r="H37" s="9">
+        <f t="shared" si="4"/>
         <v>13.179600000000001</v>
       </c>
-      <c r="I37" s="4">
-        <f t="shared" si="13"/>
+      <c r="I37" s="9">
+        <f t="shared" si="5"/>
         <v>5.3792</v>
       </c>
-      <c r="J37" s="4">
-        <f t="shared" si="14"/>
+      <c r="J37" s="9">
+        <f t="shared" si="6"/>
         <v>11.632</v>
       </c>
     </row>
@@ -1985,5 +5885,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,15 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phol\Desktop\github\Parallel_shell_sort_comarch_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7115CD86-D718-4987-955B-657C5669E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864F6870-754E-40A7-A7C1-B8B3518B77B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$24</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$24</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$24</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$24</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$24</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$24</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$24</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$D$24</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$24</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$24</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>cpu-cycles</t>
   </si>
@@ -145,7 +176,10 @@
     <t>Branch-Load-Misses</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>CPI</t>
   </si>
 </sst>
 </file>
@@ -312,7 +346,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CPU-Cycles</a:t>
+              <a:t>CPI</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -465,21 +499,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$25,Sheet1!$E$25,Sheet1!$G$25,Sheet1!$I$25)</c:f>
+              <c:f>(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>59.391411425999998</c:v>
+                  <c:v>0.57296623222631882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.357536593000006</c:v>
+                  <c:v>0.60779002570999463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.371448963999995</c:v>
+                  <c:v>0.71994948656167612</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114.663656015</c:v>
+                  <c:v>1.0189850145660018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,7 +590,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="b"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -607,21 +641,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$25,Sheet1!$F$25,Sheet1!$H$25,Sheet1!$J$25)</c:f>
+              <c:f>(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135.23394950599999</c:v>
+                  <c:v>0.55703197754460287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142.864446673</c:v>
+                  <c:v>0.58404278261349118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159.75272822400001</c:v>
+                  <c:v>0.64402153921393268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243.81461345100001</c:v>
+                  <c:v>0.95190701791986332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,7 +668,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -783,7 +817,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>CPU-Cycles (x10^9)  </a:t>
+                  <a:t>CPI)  </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -792,8 +826,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.3205685230244737E-2"/>
-              <c:y val="0.33952103814087042"/>
+              <c:x val="1.8854792982177262E-2"/>
+              <c:y val="0.42185853237713283"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -939,7 +973,940 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPI and Cache-Misses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1 thread</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-A791-459F-8658-788148D369EE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2 threads</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-A791-459F-8658-788148D369EE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>4 threads</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-A791-459F-8658-788148D369EE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>8 threads</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-A791-459F-8658-788148D369EE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.34595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7598099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9551500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0392900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57296623222631882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60779002570999463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71994948656167612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0189850145660018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A791-459F-8658-788148D369EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>1 thread</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A791-459F-8658-788148D369EE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>2 threads</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A791-459F-8658-788148D369EE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>4 threads</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A791-459F-8658-788148D369EE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>8 threads</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A791-459F-8658-788148D369EE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18.0578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.023669999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.9635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.683689999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.55703197754460287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58404278261349118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64402153921393268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95190701791986332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A791-459F-8658-788148D369EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1923717359"/>
+        <c:axId val="1923716527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1923717359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache-Misses (x10^5)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923716527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1923716527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923717359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1482,6 +2449,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1886,12 +3369,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1330187</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>35615</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="502702" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1905,7 +3388,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2949437" y="4550465"/>
+              <a:off x="2955040" y="4663644"/>
               <a:ext cx="502702" cy="175369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2005,7 +3488,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2019,7 +3502,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2949437" y="4550465"/>
+              <a:off x="2955040" y="4663644"/>
               <a:ext cx="502702" cy="175369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2047,13 +3530,14 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -2065,35 +3549,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(×10〗^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>6</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                <a:t>(×10〗^6)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
@@ -2109,7 +3569,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1025801</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>44726</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="502702" cy="177741"/>
@@ -2332,7 +3792,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>890794</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>40998</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="499880" cy="175369"/>
@@ -2531,7 +3991,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1361660</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>34787</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="502702" cy="177741"/>
@@ -2754,7 +4214,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>904460</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="499880" cy="175369"/>
@@ -2953,7 +4413,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1383609</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="502702" cy="174663"/>
@@ -3176,7 +4636,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>828260</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>44726</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="502702" cy="175369"/>
@@ -3399,7 +4859,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1297884</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>40998</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="502702" cy="174663"/>
@@ -3622,7 +5082,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1045679</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>43068</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="502702" cy="175369"/>
@@ -3845,7 +5305,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1504536</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>48866</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="502702" cy="174407"/>
@@ -4067,15 +5527,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1034822</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>233361</xdr:rowOff>
+      <xdr:colOff>1116065</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>989613</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28709</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4095,6 +5555,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50426</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>184336</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>70037</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07B92C0-E0B0-4920-9A2E-ACE1371FE3B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4400,10 +5896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BC9815-2855-4CB4-8B00-AD41286DC877}">
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="K40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5467,408 +6963,445 @@
     </row>
     <row r="27" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C27" s="9">
-        <f>C6/A6</f>
-        <v>88.947239999999994</v>
+        <f>C4/C5</f>
+        <v>0.57296623222631882</v>
       </c>
       <c r="D27" s="9">
-        <f>D6/A6</f>
-        <v>279.67957899999999</v>
+        <f t="shared" ref="D27:J27" si="0">D4/D5</f>
+        <v>0.55703197754460287</v>
       </c>
       <c r="E27" s="9">
-        <f>E6/A6</f>
-        <v>126.56222099999999</v>
+        <f t="shared" si="0"/>
+        <v>0.60779002570999463</v>
       </c>
       <c r="F27" s="9">
-        <f>F6/A6</f>
-        <v>339.22745500000002</v>
+        <f t="shared" si="0"/>
+        <v>0.58404278261349118</v>
       </c>
       <c r="G27" s="9">
-        <f>G6/A6</f>
-        <v>209.25166400000001</v>
+        <f t="shared" si="0"/>
+        <v>0.71994948656167612</v>
       </c>
       <c r="H27" s="9">
-        <f>H6/A6</f>
-        <v>465.63318900000002</v>
+        <f t="shared" si="0"/>
+        <v>0.64402153921393268</v>
       </c>
       <c r="I27" s="9">
-        <f>I6/A6</f>
-        <v>219.563357</v>
+        <f t="shared" si="0"/>
+        <v>1.0189850145660018</v>
       </c>
       <c r="J27" s="9">
-        <f>J6/A6</f>
-        <v>506.13474400000001</v>
+        <f t="shared" si="0"/>
+        <v>0.95190701791986332</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="12">
-        <f>C7/A7</f>
-        <v>14.34595</v>
+        <f>C6/A6</f>
+        <v>88.947239999999994</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" ref="D28:D37" si="0">D7/A7</f>
-        <v>18.0578</v>
+        <f>D6/A6</f>
+        <v>279.67957899999999</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" ref="E28:E37" si="1">E7/A7</f>
-        <v>6.7598099999999999</v>
+        <f>E6/A6</f>
+        <v>126.56222099999999</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" ref="F28:F37" si="2">F7/A7</f>
-        <v>29.023669999999999</v>
+        <f>F6/A6</f>
+        <v>339.22745500000002</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" ref="G28:G37" si="3">G7/A7</f>
-        <v>3.9551500000000002</v>
+        <f>G6/A6</f>
+        <v>209.25166400000001</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" ref="H28:H37" si="4">H7/A7</f>
-        <v>10.9635</v>
+        <f>H6/A6</f>
+        <v>465.63318900000002</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" ref="I28:I37" si="5">I7/A7</f>
-        <v>5.0392900000000003</v>
+        <f>I6/A6</f>
+        <v>219.563357</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" ref="J28:J37" si="6">J7/A7</f>
-        <v>22.683689999999999</v>
+        <f>J6/A6</f>
+        <v>506.13474400000001</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="9">
-        <f>C8/A8</f>
-        <v>51.102978159999999</v>
+        <f>C7/A7</f>
+        <v>14.34595</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="0"/>
-        <v>120.145670401</v>
+        <f t="shared" ref="D29:D38" si="1">D7/A7</f>
+        <v>18.0578</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" si="1"/>
-        <v>51.644393409000003</v>
+        <f t="shared" ref="E29:E38" si="2">E7/A7</f>
+        <v>6.7598099999999999</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="2"/>
-        <v>119.56081147800001</v>
+        <f t="shared" ref="F29:F38" si="3">F7/A7</f>
+        <v>29.023669999999999</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="3"/>
-        <v>51.655900987999999</v>
+        <f t="shared" ref="G29:G38" si="4">G7/A7</f>
+        <v>3.9551500000000002</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="4"/>
-        <v>121.695226488</v>
+        <f t="shared" ref="H29:H38" si="5">H7/A7</f>
+        <v>10.9635</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="5"/>
-        <v>52.074639712</v>
+        <f t="shared" ref="I29:I38" si="6">I7/A7</f>
+        <v>5.0392900000000003</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="6"/>
-        <v>122.328619686</v>
+        <f t="shared" ref="J29:J38" si="7">J7/A7</f>
+        <v>22.683689999999999</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="12">
-        <f t="shared" ref="C30:C37" si="7">C9/A9</f>
-        <v>1.1236900000000001</v>
+        <f>C8/A8</f>
+        <v>51.102978159999999</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>6.4793900000000004</v>
+        <f t="shared" si="1"/>
+        <v>120.145670401</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="1"/>
-        <v>1.81677</v>
+        <f t="shared" si="2"/>
+        <v>51.644393409000003</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="2"/>
-        <v>11.775840000000001</v>
+        <f t="shared" si="3"/>
+        <v>119.56081147800001</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="3"/>
-        <v>5.5166500000000003</v>
+        <f t="shared" si="4"/>
+        <v>51.655900987999999</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="4"/>
-        <v>62.530230000000003</v>
+        <f t="shared" si="5"/>
+        <v>121.695226488</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="5"/>
-        <v>7.90585</v>
+        <f t="shared" si="6"/>
+        <v>52.074639712</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="6"/>
-        <v>1752.7023099999999</v>
+        <f t="shared" si="7"/>
+        <v>122.328619686</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="9">
+        <f t="shared" ref="C31:C38" si="8">C9/A9</f>
+        <v>1.1236900000000001</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="1"/>
+        <v>6.4793900000000004</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="2"/>
+        <v>1.81677</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="3"/>
+        <v>11.775840000000001</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="4"/>
+        <v>5.5166500000000003</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="5"/>
+        <v>62.530230000000003</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="6"/>
+        <v>7.90585</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="7"/>
-        <v>9.0154158160000009</v>
-      </c>
-      <c r="D31" s="9">
-        <f t="shared" si="0"/>
-        <v>21.340000904</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" si="1"/>
-        <v>9.0774262760000006</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="2"/>
-        <v>20.880980393000002</v>
-      </c>
-      <c r="G31" s="9">
-        <f t="shared" si="3"/>
-        <v>9.1983713060000003</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" si="4"/>
-        <v>21.021737761000001</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" si="5"/>
-        <v>9.0003356379999992</v>
-      </c>
-      <c r="J31" s="9">
-        <f t="shared" si="6"/>
-        <v>21.148751373</v>
+        <v>1752.7023099999999</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="12">
+        <f t="shared" si="8"/>
+        <v>9.0154158160000009</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="1"/>
+        <v>21.340000904</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="2"/>
+        <v>9.0774262760000006</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="3"/>
+        <v>20.880980393000002</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="4"/>
+        <v>9.1983713060000003</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="5"/>
+        <v>21.021737761000001</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="6"/>
+        <v>9.0003356379999992</v>
+      </c>
+      <c r="J32" s="12">
         <f t="shared" si="7"/>
-        <v>2.0280999999999998</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>14.775</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" si="1"/>
-        <v>2.8098000000000001</v>
-      </c>
-      <c r="F32" s="12">
-        <f t="shared" si="2"/>
-        <v>13.6333</v>
-      </c>
-      <c r="G32" s="12">
-        <f t="shared" si="3"/>
-        <v>4.8731999999999998</v>
-      </c>
-      <c r="H32" s="12">
-        <f t="shared" si="4"/>
-        <v>24.221599999999999</v>
-      </c>
-      <c r="I32" s="12">
-        <f t="shared" si="5"/>
-        <v>9.02</v>
-      </c>
-      <c r="J32" s="12">
-        <f t="shared" si="6"/>
-        <v>402.34530000000001</v>
+        <v>21.148751373</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="9">
+        <f t="shared" si="8"/>
+        <v>2.0280999999999998</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="1"/>
+        <v>14.775</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="2"/>
+        <v>2.8098000000000001</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="3"/>
+        <v>13.6333</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="4"/>
+        <v>4.8731999999999998</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="5"/>
+        <v>24.221599999999999</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="6"/>
+        <v>9.02</v>
+      </c>
+      <c r="J33" s="9">
         <f t="shared" si="7"/>
-        <v>51.963999999999999</v>
-      </c>
-      <c r="D33" s="9">
-        <f t="shared" si="0"/>
-        <v>83.477000000000004</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" si="1"/>
-        <v>120.095</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="2"/>
-        <v>187.55500000000001</v>
-      </c>
-      <c r="G33" s="9">
-        <f t="shared" si="3"/>
-        <v>80.581000000000003</v>
-      </c>
-      <c r="H33" s="9">
-        <f t="shared" si="4"/>
-        <v>108.633</v>
-      </c>
-      <c r="I33" s="9">
-        <f t="shared" si="5"/>
-        <v>51.024000000000001</v>
-      </c>
-      <c r="J33" s="9">
-        <f t="shared" si="6"/>
-        <v>70.037999999999997</v>
+        <v>402.34530000000001</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="12">
+        <f t="shared" si="8"/>
+        <v>51.963999999999999</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="1"/>
+        <v>83.477000000000004</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="2"/>
+        <v>120.095</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="3"/>
+        <v>187.55500000000001</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="4"/>
+        <v>80.581000000000003</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="5"/>
+        <v>108.633</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="6"/>
+        <v>51.024000000000001</v>
+      </c>
+      <c r="J34" s="12">
         <f t="shared" si="7"/>
-        <v>3.8176000000000001</v>
-      </c>
-      <c r="D34" s="12">
-        <f t="shared" si="0"/>
-        <v>7.7121000000000004</v>
-      </c>
-      <c r="E34" s="12">
-        <f t="shared" si="1"/>
-        <v>4.5589000000000004</v>
-      </c>
-      <c r="F34" s="12">
-        <f t="shared" si="2"/>
-        <v>9.4639000000000006</v>
-      </c>
-      <c r="G34" s="12">
-        <f t="shared" si="3"/>
-        <v>6.1604000000000001</v>
-      </c>
-      <c r="H34" s="12">
-        <f t="shared" si="4"/>
-        <v>11.649900000000001</v>
-      </c>
-      <c r="I34" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2798999999999996</v>
-      </c>
-      <c r="J34" s="12">
-        <f t="shared" si="6"/>
-        <v>18.102</v>
+        <v>70.037999999999997</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="9">
+        <f t="shared" si="8"/>
+        <v>3.8176000000000001</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="1"/>
+        <v>7.7121000000000004</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="2"/>
+        <v>4.5589000000000004</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="3"/>
+        <v>9.4639000000000006</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="4"/>
+        <v>6.1604000000000001</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="5"/>
+        <v>11.649900000000001</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="6"/>
+        <v>9.2798999999999996</v>
+      </c>
+      <c r="J35" s="9">
         <f t="shared" si="7"/>
-        <v>87.276443049999997</v>
-      </c>
-      <c r="D35" s="9">
-        <f t="shared" si="0"/>
-        <v>198.90767276</v>
-      </c>
-      <c r="E35" s="9">
-        <f t="shared" si="1"/>
-        <v>90.833824390000004</v>
-      </c>
-      <c r="F35" s="9">
-        <f t="shared" si="2"/>
-        <v>201.60303761</v>
-      </c>
-      <c r="G35" s="9">
-        <f t="shared" si="3"/>
-        <v>98.147187000000002</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" si="4"/>
-        <v>210.43827797</v>
-      </c>
-      <c r="I35" s="9">
-        <f t="shared" si="5"/>
-        <v>110.54716356</v>
-      </c>
-      <c r="J35" s="9">
-        <f t="shared" si="6"/>
-        <v>231.29576940000001</v>
+        <v>18.102</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="12">
+        <f t="shared" si="8"/>
+        <v>87.276443049999997</v>
+      </c>
+      <c r="D36" s="12">
+        <f t="shared" si="1"/>
+        <v>198.90767276</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="2"/>
+        <v>90.833824390000004</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="3"/>
+        <v>201.60303761</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="4"/>
+        <v>98.147187000000002</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" si="5"/>
+        <v>210.43827797</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="6"/>
+        <v>110.54716356</v>
+      </c>
+      <c r="J36" s="12">
         <f t="shared" si="7"/>
-        <v>58.3125176</v>
-      </c>
-      <c r="D36" s="12">
-        <f t="shared" si="0"/>
-        <v>125.5069293</v>
-      </c>
-      <c r="E36" s="12">
-        <f t="shared" si="1"/>
-        <v>57.767734300000001</v>
-      </c>
-      <c r="F36" s="12">
-        <f t="shared" si="2"/>
-        <v>125.1732442</v>
-      </c>
-      <c r="G36" s="12">
-        <f t="shared" si="3"/>
-        <v>58.489876199999998</v>
-      </c>
-      <c r="H36" s="12">
-        <f t="shared" si="4"/>
-        <v>125.16341180000001</v>
-      </c>
-      <c r="I36" s="12">
-        <f t="shared" si="5"/>
-        <v>58.892713899999997</v>
-      </c>
-      <c r="J36" s="12">
-        <f t="shared" si="6"/>
-        <v>125.4963592</v>
+        <v>231.29576940000001</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="8"/>
+        <v>58.3125176</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="1"/>
+        <v>125.5069293</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="2"/>
+        <v>57.767734300000001</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="3"/>
+        <v>125.1732442</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="4"/>
+        <v>58.489876199999998</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="5"/>
+        <v>125.16341180000001</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="6"/>
+        <v>58.892713899999997</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="7"/>
+        <v>125.4963592</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C38" s="12">
+        <f t="shared" si="8"/>
+        <v>14.994</v>
+      </c>
+      <c r="D38" s="12">
+        <f t="shared" si="1"/>
+        <v>34.063000000000002</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="2"/>
+        <v>8.9764999999999997</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="3"/>
+        <v>19.8674</v>
+      </c>
+      <c r="G38" s="12">
+        <f t="shared" si="4"/>
+        <v>6.3609</v>
+      </c>
+      <c r="H38" s="12">
+        <f t="shared" si="5"/>
+        <v>13.179600000000001</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" si="6"/>
+        <v>5.3792</v>
+      </c>
+      <c r="J38" s="12">
         <f t="shared" si="7"/>
-        <v>14.994</v>
-      </c>
-      <c r="D37" s="9">
-        <f t="shared" si="0"/>
-        <v>34.063000000000002</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" si="1"/>
-        <v>8.9764999999999997</v>
-      </c>
-      <c r="F37" s="9">
-        <f t="shared" si="2"/>
-        <v>19.8674</v>
-      </c>
-      <c r="G37" s="9">
-        <f t="shared" si="3"/>
-        <v>6.3609</v>
-      </c>
-      <c r="H37" s="9">
-        <f t="shared" si="4"/>
-        <v>13.179600000000001</v>
-      </c>
-      <c r="I37" s="9">
-        <f t="shared" si="5"/>
-        <v>5.3792</v>
-      </c>
-      <c r="J37" s="9">
-        <f t="shared" si="6"/>
         <v>11.632</v>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -2,51 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phol\Desktop\github\Parallel_shell_sort_comarch_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864F6870-754E-40A7-A7C1-B8B3518B77B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E8BC83-D0E0-4A1F-AE7C-190A7BF2DE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A95CAEF-9012-45F3-BF0F-ABD0891E4093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$24</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$24</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$24</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$24</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$24</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$24</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$24</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$D$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$24</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$24</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29,Sheet1!$I$29)</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">(Sheet1!$D$29,Sheet1!$F$29,Sheet1!$H$29,Sheet1!$J$29)</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,9 +84,6 @@
     <t>2 core</t>
   </si>
   <si>
-    <t>3 core</t>
-  </si>
-  <si>
     <t>4 core</t>
   </si>
   <si>
@@ -180,6 +145,9 @@
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t>8 core</t>
   </si>
 </sst>
 </file>
@@ -1070,11 +1038,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1209,7 +1177,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1225,14 +1195,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1473,7 +1441,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1489,14 +1459,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1866,6 +1834,4928 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time and Misses(Workload=x)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cache-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$7,Sheet1!$E$7,Sheet1!$G$7,Sheet1!$I$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1434595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>675981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>395515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>503929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$38,Sheet1!$E$38,Sheet1!$G$38,Sheet1!$I$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9764999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5327-416A-B923-E65D41C2351A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$9,Sheet1!$E$9,Sheet1!$G$9,Sheet1!$I$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>112369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>551665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>790585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$38,Sheet1!$E$38,Sheet1!$G$38,Sheet1!$I$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9764999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5327-416A-B923-E65D41C2351A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-Store-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$11,Sheet1!$E$11,Sheet1!$G$11,Sheet1!$I$11)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$38,Sheet1!$E$38,Sheet1!$G$38,Sheet1!$I$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9764999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5327-416A-B923-E65D41C2351A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iTLB-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$13,Sheet1!$E$13,Sheet1!$G$13,Sheet1!$I$13)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$38,Sheet1!$E$38,Sheet1!$G$38,Sheet1!$I$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9764999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-5327-416A-B923-E65D41C2351A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branch-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$15,Sheet1!$E$15,Sheet1!$G$15,Sheet1!$I$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>583125176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>577677343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>584898762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>588927139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$38,Sheet1!$E$38,Sheet1!$G$38,Sheet1!$I$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9764999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-5327-416A-B923-E65D41C2351A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1923717359"/>
+        <c:axId val="1923716527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1923717359"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Misses (x10^6)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.2890091357994734"/>
+              <c:y val="0.88227287039911073"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923716527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1923716527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923717359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time and Misses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cache-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>14.99 - 1 thread</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>8.98 - 2 threads</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6.36 - 4 threads</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5.38 - 8 threads</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$7,Sheet1!$E$7,Sheet1!$G$7,Sheet1!$I$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1434595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>675981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>395515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>503929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB10-45BE-B494-382B050167EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>14.99 - 1 thread</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>8.98 - 2 threads</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6.36 - 4 threads</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5.38 - 8 threads</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$9,Sheet1!$E$9,Sheet1!$G$9,Sheet1!$I$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>112369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>551665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>790585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CB10-45BE-B494-382B050167EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-Store-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>14.99 - 1 thread</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>8.98 - 2 threads</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6.36 - 4 threads</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5.38 - 8 threads</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$11,Sheet1!$E$11,Sheet1!$G$11,Sheet1!$I$11)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CB10-45BE-B494-382B050167EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iTLB-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>14.99 - 1 thread</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>8.98 - 2 threads</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6.36 - 4 threads</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5.38 - 8 threads</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$13,Sheet1!$E$13,Sheet1!$G$13,Sheet1!$I$13)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CB10-45BE-B494-382B050167EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branch-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>14.99 - 1 thread</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>8.98 - 2 threads</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6.36 - 4 threads</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5.38 - 8 threads</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$15,Sheet1!$E$15,Sheet1!$G$15,Sheet1!$I$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>583125176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>577677343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>584898762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>588927139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-CB10-45BE-B494-382B050167EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="944752111"/>
+        <c:axId val="944748367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="944752111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="944748367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="944748367"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Misses(x10^3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="944752111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time and Misses(Workload=2x)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cache-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$7,Sheet1!$F$7,Sheet1!$H$7,Sheet1!$J$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1805780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2902367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1096350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2268369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$38,Sheet1!$F$38,Sheet1!$H$38,Sheet1!$J$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.179600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D433-44BC-A99F-A9006E187CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$9,Sheet1!$F$9,Sheet1!$H$9,Sheet1!$J$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>647939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1177584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6253023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175270231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$38,Sheet1!$F$38,Sheet1!$H$38,Sheet1!$J$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.179600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D433-44BC-A99F-A9006E187CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-Store-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$11,Sheet1!$F$11,Sheet1!$H$11,Sheet1!$J$11)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>147750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4023453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$38,Sheet1!$F$38,Sheet1!$H$38,Sheet1!$J$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.179600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D433-44BC-A99F-A9006E187CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iTLB-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$13,Sheet1!$F$13,Sheet1!$H$13,Sheet1!$J$13)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>77121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$38,Sheet1!$F$38,Sheet1!$H$38,Sheet1!$J$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.179600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D433-44BC-A99F-A9006E187CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branch-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$15,Sheet1!$F$15,Sheet1!$H$15,Sheet1!$J$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1255069293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1251732442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1251634118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1254963592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$38,Sheet1!$F$38,Sheet1!$H$38,Sheet1!$J$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.179600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D433-44BC-A99F-A9006E187CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1923717359"/>
+        <c:axId val="1923716527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1923717359"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Misses (x10^6)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.2890091357994734"/>
+              <c:y val="0.88227287039911073"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923716527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1923716527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923717359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time and CPI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-4EB5-460B-A73E-F67F920CB5EC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14451084551064533"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1 thread</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-4EB5-460B-A73E-F67F920CB5EC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14581352741128215"/>
+                  <c:y val="-7.27311253423602E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2 threads</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-4EB5-460B-A73E-F67F920CB5EC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11033715698393923"/>
+                  <c:y val="2.9092450136943546E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>4 threads</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-4EB5-460B-A73E-F67F920CB5EC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.3427836465895888E-2"/>
+                  <c:y val="4.3638675205415318E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>8 threads</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-4EB5-460B-A73E-F67F920CB5EC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57296623222631882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60779002570999463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71994948656167612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0189850145660018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$38,Sheet1!$E$38,Sheet1!$G$38,Sheet1!$I$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9764999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4EB5-460B-A73E-F67F920CB5EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1 thread</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-4EB5-460B-A73E-F67F920CB5EC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2 threads</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4EB5-460B-A73E-F67F920CB5EC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3422730021227558E-3"/>
+                  <c:y val="-2.9092450136943612E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>4 threads</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-4EB5-460B-A73E-F67F920CB5EC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>8 threads</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4EB5-460B-A73E-F67F920CB5EC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.55703197754460287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58404278261349118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64402153921393268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95190701791986332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$38,Sheet1!$F$38,Sheet1!$H$38,Sheet1!$J$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.179600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4EB5-460B-A73E-F67F920CB5EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="l"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1923717359"/>
+        <c:axId val="1923716527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1923717359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46564896239864489"/>
+              <c:y val="0.8822729335698527"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923716527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1923716527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923717359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1680" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>TLB-Misses</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> and CPI (Workload=x) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$9,Sheet1!$E$9,Sheet1!$G$9,Sheet1!$I$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>112369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>551665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>790585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57296623222631882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60779002570999463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71994948656167612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0189850145660018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-6350-4939-9B7D-FAFFDBA08FFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-Store-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$11,Sheet1!$E$11,Sheet1!$G$11,Sheet1!$I$11)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57296623222631882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60779002570999463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71994948656167612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0189850145660018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-6350-4939-9B7D-FAFFDBA08FFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iTLB-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$13,Sheet1!$E$13,Sheet1!$G$13,Sheet1!$I$13)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57296623222631882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60779002570999463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71994948656167612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0189850145660018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-6350-4939-9B7D-FAFFDBA08FFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1923717359"/>
+        <c:axId val="1923716527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1923717359"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TLB-Misses</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (x10^3)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.26751367679486382"/>
+              <c:y val="0.8822729335698527"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923716527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1923716527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923717359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TLB-Misses and CPI (Workload=2x) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$9,Sheet1!$F$9,Sheet1!$H$9,Sheet1!$J$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>647939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1177584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6253023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175270231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.55703197754460287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58404278261349118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64402153921393268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95190701791986332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDFD-48A3-8BCB-84C4782072D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-Store-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$11,Sheet1!$F$11,Sheet1!$H$11,Sheet1!$J$11)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>147750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4023453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.55703197754460287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58404278261349118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64402153921393268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95190701791986332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDFD-48A3-8BCB-84C4782072D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iTLB-Load-Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$13,Sheet1!$F$13,Sheet1!$H$13,Sheet1!$J$13)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>77121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$27,Sheet1!$F$27,Sheet1!$H$27,Sheet1!$J$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.55703197754460287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58404278261349118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64402153921393268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95190701791986332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DDFD-48A3-8BCB-84C4782072D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="916477311"/>
+        <c:axId val="916483551"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="916477311"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TLB-Misses (x10^6)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916483551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="916483551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916477311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$26,Sheet1!$E$26,Sheet1!$G$26,Sheet1!$I$26)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>103.65604129099999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.88778010599999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108.85687180399999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.527323146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEE9-4C5D-A70A-C379D542E0C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$26,Sheet1!$F$26,Sheet1!$H$26,Sheet1!$J$26)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>242.77591764499999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>244.612982004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.05494614200001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.13280379399998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EEE9-4C5D-A70A-C379D542E0C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="368640351"/>
+        <c:axId val="368640767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="368640351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368640767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="368640767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368640351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1946,6 +6836,286 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2946,6 +8116,3592 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3373,8 +12129,8 @@
       <xdr:rowOff>35615</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="502702" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3488,7 +12244,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5562,16 +14318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>50426</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>164726</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>184336</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>70037</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>793936</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>108137</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5591,6 +14347,266 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>147871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301997</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>155157</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F978862-D3FE-4189-8459-63402CE3B412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812706</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>124103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347380</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF05B91-C923-448C-9AE2-C09B00792652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1613646</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>29697</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D05CFD0-0AEE-462E-94FE-2E912E72369F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>348782</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>46225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>315165</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>87128</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A719CE5B-2C0F-4C6B-BD67-5152C40BAC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>694766</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>85729</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784A72F8-9A72-4DC4-9177-BAEF24CB9327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>715852</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABAE1B0-CCA1-471A-8391-ADBA8FB081B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>818030</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F00A71-7AB5-40D6-A708-3CD1B52E05D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5896,10 +14912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BC9815-2855-4CB4-8B00-AD41286DC877}">
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="N34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5939,7 +14955,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -5957,7 +14973,7 @@
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J2" s="14"/>
     </row>
@@ -5966,31 +14982,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>12</v>
@@ -6839,7 +15855,7 @@
     </row>
     <row r="23" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
@@ -6860,36 +15876,36 @@
     </row>
     <row r="24" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="E24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="G24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="I24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="9">
         <f>C4/A4</f>
@@ -6926,7 +15942,7 @@
     </row>
     <row r="26" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="12">
         <f>C5/A5</f>
@@ -6963,7 +15979,7 @@
     </row>
     <row r="27" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="9">
         <f>C4/C5</f>
@@ -7000,7 +16016,7 @@
     </row>
     <row r="28" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="12">
         <f>C6/A6</f>
@@ -7037,7 +16053,7 @@
     </row>
     <row r="29" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="9">
         <f>C7/A7</f>
@@ -7048,7 +16064,7 @@
         <v>18.0578</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" ref="E29:E38" si="2">E7/A7</f>
+        <f t="shared" ref="E29:E37" si="2">E7/A7</f>
         <v>6.7598099999999999</v>
       </c>
       <c r="F29" s="9">
@@ -7056,7 +16072,7 @@
         <v>29.023669999999999</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" ref="G29:G38" si="4">G7/A7</f>
+        <f t="shared" ref="G29:G37" si="4">G7/A7</f>
         <v>3.9551500000000002</v>
       </c>
       <c r="H29" s="9">
@@ -7064,7 +16080,7 @@
         <v>10.9635</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" ref="I29:I38" si="6">I7/A7</f>
+        <f t="shared" ref="I29:I37" si="6">I7/A7</f>
         <v>5.0392900000000003</v>
       </c>
       <c r="J29" s="9">
@@ -7074,7 +16090,7 @@
     </row>
     <row r="30" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="12">
         <f>C8/A8</f>
@@ -7111,10 +16127,10 @@
     </row>
     <row r="31" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="9">
-        <f t="shared" ref="C31:C38" si="8">C9/A9</f>
+        <f t="shared" ref="C31:C37" si="8">C9/A9</f>
         <v>1.1236900000000001</v>
       </c>
       <c r="D31" s="9">
@@ -7148,7 +16164,7 @@
     </row>
     <row r="32" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="12">
         <f t="shared" si="8"/>
@@ -7185,7 +16201,7 @@
     </row>
     <row r="33" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="9">
         <f t="shared" si="8"/>
@@ -7222,7 +16238,7 @@
     </row>
     <row r="34" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="12">
         <f t="shared" si="8"/>
@@ -7259,7 +16275,7 @@
     </row>
     <row r="35" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="9">
         <f t="shared" si="8"/>
@@ -7296,7 +16312,7 @@
     </row>
     <row r="36" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="12">
         <f t="shared" si="8"/>
@@ -7333,7 +16349,7 @@
     </row>
     <row r="37" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="9">
         <f t="shared" si="8"/>
@@ -7370,10 +16386,10 @@
     </row>
     <row r="38" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="12">
-        <f t="shared" si="8"/>
+        <f>C16/A16</f>
         <v>14.994</v>
       </c>
       <c r="D38" s="12">
@@ -7381,7 +16397,7 @@
         <v>34.063000000000002</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="2"/>
+        <f>E16/A16</f>
         <v>8.9764999999999997</v>
       </c>
       <c r="F38" s="12">
@@ -7389,7 +16405,7 @@
         <v>19.8674</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="4"/>
+        <f>G16/A16</f>
         <v>6.3609</v>
       </c>
       <c r="H38" s="12">
@@ -7397,7 +16413,7 @@
         <v>13.179600000000001</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="6"/>
+        <f>I16/A16</f>
         <v>5.3792</v>
       </c>
       <c r="J38" s="12">
@@ -7405,6 +16421,11 @@
         <v>11.632</v>
       </c>
     </row>
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C23:D23"/>
